--- a/VoiceoverSheet.xlsx
+++ b/VoiceoverSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameElements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finn\Desktop\Medien- und Spielekonzeption\Spez. Game Elements\GameElements\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1CB170-3596-4080-B629-682EB3A872AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -2733,7 +2734,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3536,19 +3537,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D535"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="255.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="124.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3721,7 +3722,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -3732,7 +3733,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -3743,7 +3744,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -3754,7 +3755,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -3765,7 +3766,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -3814,7 +3815,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
@@ -3825,7 +3826,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -3836,7 +3837,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
@@ -3847,7 +3848,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -3858,7 +3859,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
@@ -3869,7 +3870,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
@@ -3880,7 +3881,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
@@ -4012,7 +4013,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>81</v>
       </c>
@@ -4094,7 +4095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>93</v>
       </c>
@@ -4105,7 +4106,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>95</v>
       </c>
@@ -4116,7 +4117,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>97</v>
       </c>
@@ -4127,7 +4128,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>99</v>
       </c>
@@ -4138,7 +4139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>101</v>
       </c>
@@ -4149,7 +4150,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>103</v>
       </c>
@@ -4160,7 +4161,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>105</v>
       </c>
@@ -4171,7 +4172,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>107</v>
       </c>
@@ -4182,7 +4183,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>109</v>
       </c>
@@ -4193,7 +4194,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>111</v>
       </c>
@@ -4237,7 +4238,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>119</v>
       </c>
@@ -4259,7 +4260,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>123</v>
       </c>
@@ -4270,7 +4271,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>125</v>
       </c>
@@ -4578,7 +4579,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>174</v>
       </c>
@@ -4589,7 +4590,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>176</v>
       </c>
@@ -4600,7 +4601,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>178</v>
       </c>
@@ -4611,7 +4612,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>180</v>
       </c>
@@ -4622,7 +4623,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>182</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>186</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>188</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>194</v>
       </c>
@@ -4734,7 +4735,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>196</v>
       </c>
@@ -4745,7 +4746,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>198</v>
       </c>
@@ -4756,7 +4757,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>200</v>
       </c>
@@ -4767,7 +4768,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>202</v>
       </c>
@@ -4778,7 +4779,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>204</v>
       </c>
@@ -4789,7 +4790,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>206</v>
       </c>
@@ -4800,7 +4801,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>208</v>
       </c>
@@ -4811,7 +4812,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>210</v>
       </c>
@@ -4987,7 +4988,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>237</v>
       </c>
@@ -5009,7 +5010,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>240</v>
       </c>
@@ -5031,7 +5032,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>244</v>
       </c>
@@ -5124,7 +5125,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>257</v>
       </c>
@@ -5135,7 +5136,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>259</v>
       </c>
@@ -5146,7 +5147,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>261</v>
       </c>
@@ -5157,7 +5158,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>263</v>
       </c>
@@ -5179,7 +5180,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>267</v>
       </c>
@@ -5190,7 +5191,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>269</v>
       </c>
@@ -5201,7 +5202,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>271</v>
       </c>
@@ -5223,7 +5224,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>275</v>
       </c>
@@ -5234,7 +5235,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>277</v>
       </c>
@@ -5245,7 +5246,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>279</v>
       </c>
@@ -5256,7 +5257,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>281</v>
       </c>
@@ -5267,7 +5268,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>283</v>
       </c>
@@ -5289,7 +5290,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>287</v>
       </c>
@@ -5300,7 +5301,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>289</v>
       </c>
@@ -5311,7 +5312,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>291</v>
       </c>
@@ -5322,7 +5323,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>293</v>
       </c>
@@ -5333,7 +5334,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>295</v>
       </c>
@@ -5344,7 +5345,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>297</v>
       </c>
@@ -5355,7 +5356,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>299</v>
       </c>
@@ -5366,7 +5367,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>301</v>
       </c>
@@ -5377,7 +5378,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>303</v>
       </c>
@@ -5388,7 +5389,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>305</v>
       </c>
@@ -5399,7 +5400,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>307</v>
       </c>
@@ -5410,7 +5411,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>309</v>
       </c>
@@ -5421,7 +5422,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>311</v>
       </c>
@@ -5949,7 +5950,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>393</v>
       </c>
@@ -5960,7 +5961,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>395</v>
       </c>
@@ -5971,7 +5972,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>397</v>
       </c>
@@ -6023,7 +6024,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>404</v>
       </c>
@@ -6094,7 +6095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>414</v>
       </c>
@@ -6105,7 +6106,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>416</v>
       </c>
@@ -6116,7 +6117,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>418</v>
       </c>
@@ -6127,7 +6128,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>420</v>
       </c>
@@ -6138,7 +6139,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>422</v>
       </c>
@@ -6149,7 +6150,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>424</v>
       </c>
@@ -6182,7 +6183,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>429</v>
       </c>
@@ -6215,7 +6216,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>433</v>
       </c>
@@ -6226,7 +6227,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>435</v>
       </c>
@@ -6237,7 +6238,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>437</v>
       </c>
@@ -6248,7 +6249,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>439</v>
       </c>
@@ -6259,7 +6260,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>441</v>
       </c>
@@ -6270,7 +6271,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>443</v>
       </c>
@@ -6281,7 +6282,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>445</v>
       </c>
@@ -6292,7 +6293,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>447</v>
       </c>
@@ -6303,7 +6304,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>449</v>
       </c>
@@ -6314,7 +6315,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>450</v>
       </c>
@@ -6325,7 +6326,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>452</v>
       </c>
@@ -6336,7 +6337,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>454</v>
       </c>
@@ -6787,7 +6788,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>522</v>
       </c>
@@ -6798,7 +6799,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>524</v>
       </c>
@@ -6828,7 +6829,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>529</v>
       </c>
@@ -6883,7 +6884,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>539</v>
       </c>
@@ -6894,7 +6895,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>541</v>
       </c>
@@ -6976,7 +6977,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>552</v>
       </c>
@@ -6987,7 +6988,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>554</v>
       </c>
@@ -6998,7 +6999,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>556</v>
       </c>
@@ -7009,7 +7010,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>558</v>
       </c>
@@ -7020,7 +7021,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>560</v>
       </c>
@@ -7042,7 +7043,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>564</v>
       </c>
@@ -7053,7 +7054,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>566</v>
       </c>
@@ -7064,7 +7065,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>568</v>
       </c>
@@ -7185,7 +7186,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>588</v>
       </c>
@@ -7207,7 +7208,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>592</v>
       </c>
@@ -7259,7 +7260,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>600</v>
       </c>
@@ -7270,7 +7271,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>602</v>
       </c>
@@ -7281,7 +7282,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>604</v>
       </c>
@@ -7333,7 +7334,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>612</v>
       </c>
@@ -7344,7 +7345,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>614</v>
       </c>
@@ -7355,7 +7356,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>616</v>
       </c>
@@ -7396,7 +7397,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>623</v>
       </c>
@@ -7407,7 +7408,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>625</v>
       </c>
@@ -7418,7 +7419,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>627</v>
       </c>
@@ -7580,7 +7581,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>656</v>
       </c>
@@ -7591,7 +7592,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>658</v>
       </c>
@@ -7613,7 +7614,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>662</v>
       </c>
@@ -7673,7 +7674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>670</v>
       </c>
@@ -7695,7 +7696,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>674</v>
       </c>
@@ -7750,7 +7751,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>681</v>
       </c>
@@ -7761,7 +7762,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>683</v>
       </c>
@@ -7772,7 +7773,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>685</v>
       </c>
@@ -7783,7 +7784,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>687</v>
       </c>
@@ -7794,7 +7795,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>689</v>
       </c>
@@ -7805,7 +7806,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>691</v>
       </c>
@@ -7816,7 +7817,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>693</v>
       </c>
@@ -7827,7 +7828,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>695</v>
       </c>
@@ -7838,7 +7839,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>697</v>
       </c>
@@ -7849,7 +7850,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>699</v>
       </c>
@@ -7860,7 +7861,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>701</v>
       </c>
@@ -7871,7 +7872,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>703</v>
       </c>
@@ -7882,7 +7883,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>705</v>
       </c>
@@ -7893,7 +7894,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>707</v>
       </c>
@@ -7904,7 +7905,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>709</v>
       </c>
@@ -7915,7 +7916,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>711</v>
       </c>
@@ -7926,7 +7927,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>713</v>
       </c>
@@ -8003,7 +8004,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>727</v>
       </c>
@@ -8102,7 +8103,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>745</v>
       </c>
@@ -8146,7 +8147,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>753</v>
       </c>
@@ -8157,7 +8158,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>754</v>
       </c>
@@ -8168,7 +8169,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>756</v>
       </c>
@@ -8278,7 +8279,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>771</v>
       </c>
@@ -8379,7 +8380,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>785</v>
       </c>
@@ -8390,7 +8391,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>787</v>
       </c>
@@ -8401,7 +8402,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>789</v>
       </c>
@@ -8412,7 +8413,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>791</v>
       </c>
@@ -8434,7 +8435,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>795</v>
       </c>
@@ -8566,7 +8567,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>818</v>
       </c>
@@ -8577,7 +8578,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>820</v>
       </c>
@@ -8588,7 +8589,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>822</v>
       </c>
@@ -8656,7 +8657,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>831</v>
       </c>
@@ -8667,7 +8668,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>833</v>
       </c>
@@ -8678,7 +8679,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>835</v>
       </c>
@@ -8689,7 +8690,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>837</v>
       </c>
@@ -8700,7 +8701,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>839</v>
       </c>
@@ -8711,7 +8712,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>841</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>843</v>
       </c>
@@ -8733,7 +8734,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>845</v>
       </c>
@@ -8744,7 +8745,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>847</v>
       </c>
@@ -8755,7 +8756,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>849</v>
       </c>
@@ -8766,7 +8767,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>851</v>
       </c>
@@ -8777,7 +8778,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>853</v>
       </c>

--- a/VoiceoverSheet.xlsx
+++ b/VoiceoverSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finn\Desktop\Medien- und Spielekonzeption\Spez. Game Elements\GameElements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1CB170-3596-4080-B629-682EB3A872AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C2FF78-0FA5-4605-B29D-5140124D9C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,105 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E94C555D-50C7-4194-9AA0-5FDF29E9B619}</author>
+    <author>tc={FD2E52E8-F883-485A-9115-81F82E7D2306}</author>
+    <author>tc={325A0BA8-640B-46C2-A91B-054B012B3FB9}</author>
+    <author>tc={0045E62F-83C8-4ABF-8EB6-FA7FA50AEE25}</author>
+    <author>tc={8FACA130-821A-4A75-AA3D-1E319BEBC316}</author>
+    <author>tc={A85F95FB-35E4-4F2F-BC60-22BDE7A3D460}</author>
+    <author>tc={13A5A41A-BDAB-4B01-9781-942AD11EE0CF}</author>
+    <author>tc={A11DFB4E-F489-4CB5-8371-E6BF7C30A54D}</author>
+    <author>tc={89F48A0F-357A-4CDF-BCD3-DCE5F9841820}</author>
+    <author>tc={3320F026-255A-4B3D-BC27-9E68FE65CD5F}</author>
+  </authors>
+  <commentList>
+    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{E94C555D-50C7-4194-9AA0-5FDF29E9B619}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Veränderung</t>
+      </text>
+    </comment>
+    <comment ref="D44" authorId="1" shapeId="0" xr:uid="{FD2E52E8-F883-485A-9115-81F82E7D2306}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Missionsmarker</t>
+      </text>
+    </comment>
+    <comment ref="D46" authorId="2" shapeId="0" xr:uid="{325A0BA8-640B-46C2-A91B-054B012B3FB9}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    nur Symbol...</t>
+      </text>
+    </comment>
+    <comment ref="D48" authorId="3" shapeId="0" xr:uid="{0045E62F-83C8-4ABF-8EB6-FA7FA50AEE25}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Missionsmarker</t>
+      </text>
+    </comment>
+    <comment ref="D69" authorId="4" shapeId="0" xr:uid="{8FACA130-821A-4A75-AA3D-1E319BEBC316}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Missionsmarker</t>
+      </text>
+    </comment>
+    <comment ref="D74" authorId="5" shapeId="0" xr:uid="{A85F95FB-35E4-4F2F-BC60-22BDE7A3D460}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    euren neuen Körperteil</t>
+      </text>
+    </comment>
+    <comment ref="D84" authorId="6" shapeId="0" xr:uid="{13A5A41A-BDAB-4B01-9781-942AD11EE0CF}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Körperteil-Karte</t>
+      </text>
+    </comment>
+    <comment ref="D85" authorId="7" shapeId="0" xr:uid="{A11DFB4E-F489-4CB5-8371-E6BF7C30A54D}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Körperteil-Karte</t>
+      </text>
+    </comment>
+    <comment ref="D120" authorId="8" shapeId="0" xr:uid="{89F48A0F-357A-4CDF-BCD3-DCE5F9841820}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    mehrere Veränderungen</t>
+      </text>
+    </comment>
+    <comment ref="D121" authorId="9" shapeId="0" xr:uid="{3320F026-255A-4B3D-BC27-9E68FE65CD5F}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    mehrere Veränderungen</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="903">
   <si>
@@ -154,9 +253,6 @@
     <t>Erzähler_13_9</t>
   </si>
   <si>
-    <t>Als Crew seid ihr nun komplett und fast bereit euer Abenteuer zu starten. Bevor es los geht müsst ihr nur noch einen Käpt‘n ernennen. Der Spieler, der als Käpt’n ernannt wird, hat im Spiel die Aufgabe die Crew zusammen zu halten. Sollte sich die Crew bei einer Entscheidung nicht einigen können, vermittelt der Käpt’n zwischen den Spielern, sodass alle in das Spielgeschehen eingebunden werden.\r\nDer Käpt’n erhält den Papagei des Käpt’n und kann sich diesen auf die Schulter klemmen.</t>
-  </si>
-  <si>
     <t>Erzähler_13_10</t>
   </si>
   <si>
@@ -184,9 +280,6 @@
     <t>Erzähler_3_288</t>
   </si>
   <si>
-    <t>Der Aufstieg gestaltet sich als schwieriger als gedacht (legt einen Rationsmarker ab). Als ihr endlich auf dem Gipfel ankommt, dämmert es bereits. So wirkt die alte Frau, die euch nun entgegen tritt noch ein wenig mystischer. \n"Verdammte, seid willkommen! Ihr solltet in Zukunft vorsichtiger mit eurem Schiff umgehen, denn euch steht eine schwere Aufgabe bevor. Ruht euch also aus und macht euch morgen auf den Weg nach Lanun Harbour. Ihr werdet dort bereits erwartet." \nAls ihr am nächsten Tag wieder am Strand ankommt, stellt ihr zu eurer Verwunderung fest, dass euer Schiff vollkommen unbeschadet in sicherem Abstand zur Felseninsel vor Anker liegt.\n\n(Legt den Hauptmissionsmarker auf das Feld Lanun Harbour)</t>
-  </si>
-  <si>
     <t>Erzähler_3_289</t>
   </si>
   <si>
@@ -196,9 +289,6 @@
     <t>Erzähler_3_290</t>
   </si>
   <si>
-    <t>Sobald ihr auf ein Feld mit einem Symbol oder einem Missionsmarker zieht (auch, wenn ihr nur darüber ziehen wolltet), müsst ihr zunächst stehen bleiben und in der App das entsprechende Symbol antippen.\n\n-&gt; Zieht jetzt auf direktem Weg nach Lanun Harbour! Dafür müsst ihr erst auf das leere Feld vor Lanun Harbour ziehen und dafür eine Ration abgeben und dann auf das Feld Lanun Harbour ziehen und dafür eine weitere Ration abgeben. Da auf dem Feld Lanun Harbour ein Missionsmarker liegt, dürft ihr nun nicht weiter ziehen, sondern müsst anschließend der App das entsprechende Symbol antippen.</t>
-  </si>
-  <si>
     <t>Erzähler_3_291</t>
   </si>
   <si>
@@ -208,9 +298,6 @@
     <t>Erzähler_3_292</t>
   </si>
   <si>
-    <t>Nachdem ihr euch von dem Schock etwas erholt habt, macht ihr euch daran euer Schiff wieder auf Vordermann zu bringen. Nachdem ihr die Schäden repariert habt, belohnt ihr euch mit einem ordentlichen Mahl (legt einen Rationsmarker ab). \nZufrieden legt ihr euch schlafen. Doch im Schlaf hört ihr ein seltsames Flüstern: "Fahrt nach Lanun Harbour! Ein alter Freund erwartet euch..." \n\n(Legt den Hauptmissionsmarker auf das Feld Lanun Harbour)</t>
-  </si>
-  <si>
     <t>Erzähler_3_293</t>
   </si>
   <si>
@@ -304,9 +391,6 @@
     <t>Alter_Seemann_4_452</t>
   </si>
   <si>
-    <t>(Nehmt den Hauptmissionsmarker vom Spielplan)\n\nAls ihr in Lanun Harbour anlegt, kommt euch sofort ein alter Seemann aus dem wuseligen Treiben im Hafen entgegen. Euch fällt auf, dass vielen Menschen, die unterwegs sind, Gliedmaßen fehlen. So auch dem Seemann, der mit seinem Holzbein auf euch zugestakst kommt. Er nimmt euch mit in seine Taverne.\n"Da seid ihr ja endlich! Mensch, ihr seht ja völlig verdattert aus... Wisst ihr denn gar nicht, warum ihr eigentlich hergekommen seid? Habt ihr den Auftrag an eurem Papageien etwa noch nicht gefunden?"\n\n(Guckt euch den Brief in der Flasche am Papagei an.)</t>
-  </si>
-  <si>
     <t>Alter_Seemann_4_453</t>
   </si>
   <si>
@@ -334,9 +418,6 @@
     <t>Alter_Seemann_4_457</t>
   </si>
   <si>
-    <t>Einen Moment lang wirkt es so, als würden sich die drei etwas beruhigen. Doch als sie euer neu gefundenes Körperteil sehen, stürzen sie sofort auf euch zu.</t>
-  </si>
-  <si>
     <t>Alter_Seemann_4_458</t>
   </si>
   <si>
@@ -394,15 +475,9 @@
     <t>Alter_Seemann_4_467</t>
   </si>
   <si>
-    <t>(Nehmt die "Holzbein"-Karte (17) und legt sie an die entsprechende Stelle auf den Charakterbogen eines eurer Charaktere. Hinweis: Liegt an dieser Stelle bereits ein Körperteil, so muss dieses entfernt werden.)\n\n"Das hier habe ich... nun ja sagen wir von einem großzügigen Spender bekommen. Ich hoffe ihr habt mir gut zugeschaut. Ich gebe euch etwas von meinem Werkzeug mit, dann könnt ihr solche Operationen zukünftig auch selber durchführen... Jetzt aber nichts wie hoch. Ihr seht aus, als könntet ihr noch den ein oder anderen Grog gebrauchen."</t>
-  </si>
-  <si>
     <t>Alter_Seemann_4_468</t>
   </si>
   <si>
-    <t>(Nehmt die "Schuppiger Arm"-Karte (18) und legt sie an die entsprechende Stelle auf den Charakterbogen eines eurer Charaktere. Hinweis: Liegt an dieser Stelle bereits ein Körperteil, so muss dieses entfernt werden.)\n\n"Das hier habe ich... nun ja sagen wir von einem großzügigen Spender bekommen. Ich hoffe ihr habt mir gut zugeschaut. Ich gebe euch etwas von meinem Werkzeug mit, dann könnt ihr solche Operationen zukünftig auch selber durchführen... Jetzt aber nichts wie hoch. Ihr seht aus, als könntet ihr noch den ein oder anderen Grog gebrauchen."</t>
-  </si>
-  <si>
     <t>Players_All_4_469</t>
   </si>
   <si>
@@ -583,15 +658,9 @@
     <t>Erzähler_4_507</t>
   </si>
   <si>
-    <t>Ihr erhaltet ein Körperteil! Eine Hakenhand (36).\nAllerdings hat einer von euch im Kampf ganzschön einen mitbekommen, und verliert somit ein Körperteil! (Ihr verliert [var=Part1]).\n\nHinweis: Erhaltet ihr ein Körperteil nach einem Kampf, so müsst ihr dieses entweder direkt anlegen und dafür gegebenenfalls ein anderes Körperteil ablegen oder das neu erhaltene Körperteil ablehnen. Körperteile können nicht für später aufbewahrt werden.</t>
-  </si>
-  <si>
     <t>Erzähler_4_508</t>
   </si>
   <si>
-    <t>Ihr erhaltet ein Körperteil! Eine Hakenhand (36).\n\nHinweis: Erhaltet ihr ein Körperteil nach einem Kampf, so müsst ihr dieses entweder direkt anlegen und dafür gegebenenfalls ein anderes Körperteil ablegen oder das neu erhaltene Körperteil ablehnen. Körperteile können nicht für später aufbewahrt werden.</t>
-  </si>
-  <si>
     <t>Erzähler_4_510</t>
   </si>
   <si>
@@ -2729,13 +2798,43 @@
   </si>
   <si>
     <t>Dann wird hier wohl nichts mehr zu holen sein.</t>
+  </si>
+  <si>
+    <t>Als Crew seid ihr nun komplett und fast bereit euer Abenteuer zu starten. Bevor es los geht [Komma] müsst ihr nur noch einen Käpt‘n ernennen. Der Spieler, der als Käpt’n ernannt wird, hat im Spiel die Aufgabe die Crew zusammen zu halten. Sollte sich die Crew bei einer Entscheidung nicht einigen können, vermittelt der Käpt’n zwischen den Spielern, sodass alle in das Spielgeschehen eingebunden werden.\r\nDer Käpt’n erhält den Papagei des Käpt’n und kann sich diesen auf die Schulter klemmen.</t>
+  </si>
+  <si>
+    <t>Der Aufstieg gestaltet sich als schwieriger als gedacht (legt einen Rationsmarker ab). Als ihr endlich auf dem Gipfel ankommt, dämmert es bereits. So wirkt die alte Frau, die euch nun entgegen tritt noch ein wenig mystischer. \n"Verdammte, seid willkommen! Ihr solltet in Zukunft vorsichtiger mit eurem Schiff umgehen, denn euch steht eine schwere Aufgabe bevor. Ruht euch also aus und macht euch morgen auf den Weg nach Lanun Harbour. Ihr werdet dort bereits erwartet." \nAls ihr am nächsten Tag wieder am Strand ankommt, stellt ihr zu eurer Verwunderung fest, dass euer Schiff vollkommen unbeschadet in sicherem Abstand zur Felseninsel vor Anker liegt.\n\n(Legt den [Missionsmarker] auf das Feld Lanun Harbour)</t>
+  </si>
+  <si>
+    <t>Sobald ihr auf ein Feld mit einem Symbol zieht (auch, wenn ihr nur darüber ziehen wolltet), müsst ihr zunächst stehen bleiben und in der App das entsprechende Symbol antippen.\n\n-&gt; Zieht jetzt auf direktem Weg nach Lanun Harbour! Dafür müsst ihr erst auf das leere Feld vor Lanun Harbour ziehen und dafür eine Ration abgeben und dann auf das Feld Lanun Harbour ziehen und dafür eine weitere Ration abgeben. Da auf dem Feld Lanun Harbour ein Symbol ist, dürft ihr nun nicht weiter ziehen, sondern müsst anschließend der App das entsprechende Symbol antippen.</t>
+  </si>
+  <si>
+    <t>Nachdem ihr euch von dem Schock etwas erholt habt, macht ihr euch daran euer Schiff wieder auf Vordermann zu bringen. Nachdem ihr die Schäden repariert habt, belohnt ihr euch mit einem ordentlichen Mahl (legt einen Rationsmarker ab). \nZufrieden legt ihr euch schlafen. Doch im Schlaf hört ihr ein seltsames Flüstern: "Fahrt nach Lanun Harbour! Ein alter Freund erwartet euch..." \n\n(Legt den [Missionsmarker] auf das Feld Lanun Harbour)</t>
+  </si>
+  <si>
+    <t>(Nehmt den [Missionsmarker] vom Spielplan)\n\nAls ihr in Lanun Harbour anlegt, kommt euch sofort ein alter Seemann aus dem wuseligen Treiben im Hafen entgegen. Euch fällt auf, dass vielen Menschen, die unterwegs sind, Gliedmaßen fehlen. So auch dem Seemann, der mit seinem Holzbein auf euch zugestakst kommt. Er nimmt euch mit in seine Taverne.\n"Da seid ihr ja endlich! Mensch, ihr seht ja völlig verdattert aus... Wisst ihr denn gar nicht, warum ihr eigentlich hergekommen seid? Habt ihr den Auftrag an eurem Papageien etwa noch nicht gefunden?"\n\n(Guckt euch den Brief in der Flasche am Papagei an.)</t>
+  </si>
+  <si>
+    <t>Einen Moment lang wirkt es so, als würden sich die drei etwas beruhigen. Doch als sie [euren neuen Körperteil] sehen, stürzen sie sofort auf euch zu.</t>
+  </si>
+  <si>
+    <t>(Nehmt die "Holzbein"-Karte (17) und legt sie an die entsprechende Stelle auf den Charakterbogen eines eurer Charaktere. Hinweis: Liegt an dieser Stelle bereits [eine Körperteil-Karte], so muss dieses entfernt werden.)\n\n"Das hier habe ich... nun ja sagen wir von einem großzügigen Spender bekommen. Ich hoffe ihr habt mir gut zugeschaut. Ich gebe euch etwas von meinem Werkzeug mit, dann könnt ihr solche Operationen zukünftig auch selber durchführen... Jetzt aber nichts wie hoch. Ihr seht aus, als könntet ihr noch den ein oder anderen Grog gebrauchen."</t>
+  </si>
+  <si>
+    <t>(Nehmt die "Schuppiger Arm"-Karte (18) und legt sie an die entsprechende Stelle auf den Charakterbogen eines eurer Charaktere. Hinweis: Liegt an dieser Stelle bereits [eine Körperteil-Karte], so muss dieses entfernt werden.)\n\n"Das hier habe ich... nun ja sagen wir von einem großzügigen Spender bekommen. Ich hoffe ihr habt mir gut zugeschaut. Ich gebe euch etwas von meinem Werkzeug mit, dann könnt ihr solche Operationen zukünftig auch selber durchführen... Jetzt aber nichts wie hoch. Ihr seht aus, als könntet ihr noch den ein oder anderen Grog gebrauchen."</t>
+  </si>
+  <si>
+    <t>Ihr erhaltet [einen Körperteil]! Eine Hakenhand (36).\nAllerdings hat einer von euch im Kampf ganzschön einen mitbekommen, und verliert somit [einen Körperteil]! (Ihr verliert [var=Part1]).\n\nHinweis: Erhaltet ihr [eine Körperteil-Karte] nach einem Kampf, so müsst ihr [diese] entweder direkt anlegen und dafür gegebenenfalls [eine andere Körperteil-Karte] ablegen oder [die neu erhaltene Körperteil-Karte] ablehnen. Körperteile können nicht für später aufbewahrt werden.</t>
+  </si>
+  <si>
+    <t>Ihr erhaltet [einen Körperteil]! Eine Hakenhand (36).\n\nHinweis: Erhaltet ihr [eine Körperteil-Karte] nach einem Kampf, so müsst ihr [diese] entweder direkt anlegen und dafür gegebenenfalls [eine andere Körperteil-Karte] ablegen oder [die neu erhaltene Körperteil-Karte] ablehnen. Körperteile können nicht für später aufbewahrt werden.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2869,6 +2968,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3275,6 +3380,72 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2205403</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>153865</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D415F7-F374-44DD-A89C-1D1459DFFBE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6345115" y="20727865"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Finn Logemann" id="{A6EBBD98-08F8-41C4-A7B1-478A4B9A0F41}" userId="Finn Logemann" providerId="None"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -3536,12 +3707,47 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D36" dT="2022-01-29T20:03:07.32" personId="{A6EBBD98-08F8-41C4-A7B1-478A4B9A0F41}" id="{E94C555D-50C7-4194-9AA0-5FDF29E9B619}">
+    <text>Veränderung</text>
+  </threadedComment>
+  <threadedComment ref="D44" dT="2022-01-29T20:25:54.04" personId="{A6EBBD98-08F8-41C4-A7B1-478A4B9A0F41}" id="{FD2E52E8-F883-485A-9115-81F82E7D2306}">
+    <text>Missionsmarker</text>
+  </threadedComment>
+  <threadedComment ref="D46" dT="2022-01-29T20:36:36.92" personId="{A6EBBD98-08F8-41C4-A7B1-478A4B9A0F41}" id="{325A0BA8-640B-46C2-A91B-054B012B3FB9}">
+    <text>nur Symbol...</text>
+  </threadedComment>
+  <threadedComment ref="D48" dT="2022-01-29T20:51:02.93" personId="{A6EBBD98-08F8-41C4-A7B1-478A4B9A0F41}" id="{0045E62F-83C8-4ABF-8EB6-FA7FA50AEE25}">
+    <text>Missionsmarker</text>
+  </threadedComment>
+  <threadedComment ref="D69" dT="2022-01-29T21:01:54.41" personId="{A6EBBD98-08F8-41C4-A7B1-478A4B9A0F41}" id="{8FACA130-821A-4A75-AA3D-1E319BEBC316}">
+    <text>Missionsmarker</text>
+  </threadedComment>
+  <threadedComment ref="D74" dT="2022-01-29T21:23:49.14" personId="{A6EBBD98-08F8-41C4-A7B1-478A4B9A0F41}" id="{A85F95FB-35E4-4F2F-BC60-22BDE7A3D460}">
+    <text>euren neuen Körperteil</text>
+  </threadedComment>
+  <threadedComment ref="D84" dT="2022-01-29T21:55:44.57" personId="{A6EBBD98-08F8-41C4-A7B1-478A4B9A0F41}" id="{13A5A41A-BDAB-4B01-9781-942AD11EE0CF}">
+    <text>Körperteil-Karte</text>
+  </threadedComment>
+  <threadedComment ref="D85" dT="2022-01-29T22:02:49.96" personId="{A6EBBD98-08F8-41C4-A7B1-478A4B9A0F41}" id="{A11DFB4E-F489-4CB5-8371-E6BF7C30A54D}">
+    <text>Körperteil-Karte</text>
+  </threadedComment>
+  <threadedComment ref="D120" dT="2022-01-29T22:16:47.19" personId="{A6EBBD98-08F8-41C4-A7B1-478A4B9A0F41}" id="{89F48A0F-357A-4CDF-BCD3-DCE5F9841820}">
+    <text>mehrere Veränderungen</text>
+  </threadedComment>
+  <threadedComment ref="D121" dT="2022-01-29T22:16:47.19" personId="{A6EBBD98-08F8-41C4-A7B1-478A4B9A0F41}" id="{3320F026-255A-4B3D-BC27-9E68FE65CD5F}">
+    <text>mehrere Veränderungen</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D535"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3774,26 +3980,26 @@
         <v>18</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>44</v>
+        <v>893</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
         <v>47</v>
-      </c>
-      <c r="B39" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3817,263 +4023,263 @@
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>54</v>
+        <v>894</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>58</v>
+        <v>895</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>62</v>
+        <v>896</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
         <v>18</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -4097,590 +4303,590 @@
     </row>
     <row r="69" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>94</v>
+        <v>897</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B70" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B73" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>104</v>
+        <v>898</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B75" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B76" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B77" t="s">
         <v>18</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B78" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B79" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B80" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B81" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
         <v>18</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B84" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>124</v>
+        <v>899</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B85" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>126</v>
+        <v>900</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B113" t="s">
         <v>18</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B114" t="s">
         <v>18</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B115" t="s">
         <v>18</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B116" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B117" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B120" t="s">
         <v>18</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>187</v>
+        <v>901</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B121" t="s">
         <v>18</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>189</v>
+        <v>902</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B122" t="s">
         <v>18</v>
@@ -4688,21 +4894,21 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B125" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -4726,384 +4932,384 @@
     </row>
     <row r="128" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B128" t="s">
         <v>19</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B129" t="s">
         <v>19</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B130" t="s">
         <v>19</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B131" t="s">
         <v>19</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B132" t="s">
         <v>19</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B133" t="s">
         <v>19</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B134" t="s">
         <v>19</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B135" t="s">
         <v>19</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B136" t="s">
         <v>19</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B139" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B141" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B143" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B151" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B152" t="s">
         <v>19</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B153" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B154" t="s">
         <v>19</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B155" t="s">
         <v>19</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B156" t="s">
         <v>19</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B157" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B158" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B159" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B160" t="s">
         <v>19</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B161" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B163" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -5127,865 +5333,865 @@
     </row>
     <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B166" t="s">
         <v>20</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B167" t="s">
         <v>20</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B168" t="s">
         <v>20</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B169" t="s">
         <v>20</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B170" t="s">
         <v>20</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B171" t="s">
         <v>20</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B172" t="s">
         <v>20</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>20</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B174" t="s">
         <v>20</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B175" t="s">
         <v>20</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B176" t="s">
         <v>20</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B177" t="s">
         <v>20</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B178" t="s">
         <v>20</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B179" t="s">
         <v>20</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B180" t="s">
         <v>20</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B181" t="s">
         <v>20</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B182" t="s">
         <v>21</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B183" t="s">
         <v>21</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B184" t="s">
         <v>21</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B185" t="s">
         <v>21</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B186" t="s">
         <v>21</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B187" t="s">
         <v>21</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B188" t="s">
         <v>21</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B189" t="s">
         <v>21</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B190" t="s">
         <v>21</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B191" t="s">
         <v>21</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B192" t="s">
         <v>20</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B193" t="s">
         <v>20</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B194" t="s">
         <v>8</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B196" t="s">
         <v>8</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B197" t="s">
         <v>8</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B198" t="s">
         <v>8</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B199" t="s">
         <v>8</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B200" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B201" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B202" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B203" t="s">
         <v>8</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B204" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B205" t="s">
         <v>8</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B206" t="s">
         <v>8</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B207" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B208" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B209" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B210" t="s">
         <v>8</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B211" t="s">
         <v>8</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B212" t="s">
         <v>8</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B213" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B214" t="s">
         <v>8</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B215" t="s">
         <v>8</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B216" t="s">
         <v>8</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B217" t="s">
         <v>8</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B218" t="s">
         <v>8</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B219" t="s">
         <v>8</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B220" t="s">
         <v>8</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B221" t="s">
         <v>8</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B222" t="s">
         <v>8</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B223" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B224" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B225" t="s">
         <v>8</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B226" t="s">
         <v>8</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B227" t="s">
         <v>8</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B228" t="s">
         <v>8</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B229" t="s">
         <v>8</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B230" t="s">
         <v>8</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B231" t="s">
         <v>8</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B232" t="s">
         <v>8</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B233" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B234" t="s">
         <v>8</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B235" t="s">
         <v>8</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B236" t="s">
         <v>8</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B237" t="s">
         <v>8</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B238" t="s">
         <v>8</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B239" t="s">
         <v>18</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B240" t="s">
         <v>8</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B241" t="s">
         <v>18</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B242" t="s">
         <v>18</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B243" t="s">
         <v>18</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B244" t="s">
         <v>18</v>
@@ -5993,87 +6199,87 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B245" t="s">
         <v>20</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B246" t="s">
         <v>8</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B247" t="s">
         <v>8</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B248" t="s">
         <v>20</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B249" t="s">
         <v>8</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B250" t="s">
         <v>18</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B251" t="s">
         <v>8</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B253" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -6097,722 +6303,722 @@
     </row>
     <row r="256" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B256" t="s">
         <v>18</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B257" t="s">
         <v>18</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B258" t="s">
         <v>18</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B259" t="s">
         <v>18</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B260" t="s">
         <v>22</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B261" t="s">
         <v>22</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B262" t="s">
         <v>22</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B263" t="s">
         <v>22</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B264" t="s">
         <v>22</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B265" t="s">
         <v>22</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B266" t="s">
         <v>22</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B267" t="s">
         <v>22</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B268" t="s">
         <v>22</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B269" t="s">
         <v>22</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B270" t="s">
         <v>22</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B271" t="s">
         <v>22</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B272" t="s">
         <v>22</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B273" t="s">
         <v>23</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B274" t="s">
         <v>22</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B275" t="s">
         <v>22</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B276" t="s">
         <v>22</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B277" t="s">
         <v>23</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B278" t="s">
         <v>23</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B279" t="s">
         <v>8</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B280" t="s">
         <v>8</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="B281" t="s">
         <v>8</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B282" t="s">
         <v>8</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B283" t="s">
         <v>8</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B284" t="s">
         <v>8</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B285" t="s">
         <v>8</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B286" t="s">
         <v>8</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B287" t="s">
         <v>8</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B288" t="s">
         <v>8</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B289" t="s">
         <v>8</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B290" t="s">
         <v>8</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B291" t="s">
         <v>8</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B292" t="s">
         <v>8</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B293" t="s">
         <v>8</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B294" t="s">
         <v>8</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B295" t="s">
         <v>8</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B296" t="s">
         <v>8</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B297" t="s">
         <v>8</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B298" t="s">
         <v>8</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B299" t="s">
         <v>8</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B300" t="s">
         <v>8</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B301" t="s">
         <v>8</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B302" t="s">
         <v>8</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B303" t="s">
         <v>8</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B304" t="s">
         <v>8</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B305" t="s">
         <v>8</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B306" t="s">
         <v>8</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B307" t="s">
         <v>8</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B308" t="s">
         <v>8</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B309" t="s">
         <v>8</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B310" t="s">
         <v>8</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B311" t="s">
         <v>8</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B312" t="s">
         <v>8</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B313" t="s">
         <v>8</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B314" t="s">
         <v>8</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B315" t="s">
         <v>8</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B316" t="s">
         <v>18</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B317" t="s">
         <v>8</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B318" t="s">
         <v>18</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B319" t="s">
         <v>18</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B320" t="s">
         <v>18</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B321" t="s">
         <v>18</v>
@@ -6820,142 +7026,142 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B322" t="s">
         <v>8</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B323" t="s">
         <v>23</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B324" t="s">
         <v>8</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B325" t="s">
         <v>8</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B326" t="s">
         <v>23</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B327" t="s">
         <v>8</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B328" t="s">
         <v>18</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B329" t="s">
         <v>23</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="B330" t="s">
         <v>18</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="B331" t="s">
         <v>8</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B332" t="s">
         <v>18</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="B333" t="s">
         <v>8</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B335" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -6979,249 +7185,249 @@
     </row>
     <row r="338" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="B338" t="s">
         <v>25</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="B339" t="s">
         <v>25</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="B340" t="s">
         <v>25</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B341" t="s">
         <v>24</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B342" t="s">
         <v>25</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B343" t="s">
         <v>18</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B344" t="s">
         <v>24</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="B345" t="s">
         <v>25</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="B346" t="s">
         <v>25</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="B347" t="s">
         <v>8</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="B348" t="s">
         <v>8</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B349" t="s">
         <v>8</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="B350" t="s">
         <v>8</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="B351" t="s">
         <v>8</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="B352" t="s">
         <v>8</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B353" t="s">
         <v>8</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="B354" t="s">
         <v>8</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B355" t="s">
         <v>18</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="B356" t="s">
         <v>8</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="B357" t="s">
         <v>18</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="B358" t="s">
         <v>18</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="B359" t="s">
         <v>18</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="B360" t="s">
         <v>18</v>
@@ -7229,73 +7435,73 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="B361" t="s">
         <v>8</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="B362" t="s">
         <v>24</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="B363" t="s">
         <v>8</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="B364" t="s">
         <v>24</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="B365" t="s">
         <v>24</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B366" t="s">
         <v>24</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="B367" t="s">
         <v>24</v>
@@ -7303,73 +7509,73 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="B368" t="s">
         <v>8</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="B369" t="s">
         <v>24</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="B370" t="s">
         <v>8</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="B371" t="s">
         <v>24</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B372" t="s">
         <v>24</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="B373" t="s">
         <v>24</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="B374" t="s">
         <v>24</v>
@@ -7377,62 +7583,62 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B375" t="s">
         <v>24</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="B376" t="s">
         <v>8</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="B377" t="s">
         <v>24</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="B378" t="s">
         <v>24</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="B379" t="s">
         <v>24</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="B380" t="s">
         <v>24</v>
@@ -7440,219 +7646,219 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="B381" t="s">
         <v>25</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="B382" t="s">
         <v>8</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B383" t="s">
         <v>26</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="B384" t="s">
         <v>26</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="B385" t="s">
         <v>26</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B386" t="s">
         <v>26</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B387" t="s">
         <v>26</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="B388" t="s">
         <v>26</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="B389" t="s">
         <v>26</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="B390" t="s">
         <v>26</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="B391" t="s">
         <v>26</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="B392" t="s">
         <v>26</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="B393" t="s">
         <v>26</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="B394" t="s">
         <v>26</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="B395" t="s">
         <v>27</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B396" t="s">
         <v>8</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="B397" t="s">
         <v>24</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B398" t="s">
         <v>18</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="B399" t="s">
         <v>8</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="B401" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -7676,634 +7882,634 @@
     </row>
     <row r="404" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="B404" t="s">
         <v>18</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="B405" t="s">
         <v>28</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="B406" t="s">
         <v>28</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="B407" t="s">
         <v>28</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="B408" t="s">
         <v>28</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="B409" t="s">
         <v>28</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="B410" t="s">
         <v>28</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="B411" t="s">
         <v>28</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="B412" t="s">
         <v>28</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="B413" t="s">
         <v>28</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B414" t="s">
         <v>28</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="B415" t="s">
         <v>28</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="B416" t="s">
         <v>28</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="B417" t="s">
         <v>28</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="B418" t="s">
         <v>28</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="B419" t="s">
         <v>28</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B420" t="s">
         <v>28</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
     </row>
     <row r="421" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="B421" t="s">
         <v>28</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="B422" t="s">
         <v>28</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="B423" t="s">
         <v>28</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="B424" t="s">
         <v>28</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="B425" t="s">
         <v>28</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B426" t="s">
         <v>28</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="B427" t="s">
         <v>28</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="B428" t="s">
         <v>8</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="B429" t="s">
         <v>8</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="B430" t="s">
         <v>8</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="B431" t="s">
         <v>8</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="B432" t="s">
         <v>8</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="B433" t="s">
         <v>8</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="B434" t="s">
         <v>8</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="B435" t="s">
         <v>8</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="B436" t="s">
         <v>8</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="B437" t="s">
         <v>8</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="B438" t="s">
         <v>8</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B439" t="s">
         <v>8</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="B440" t="s">
         <v>8</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="B441" t="s">
         <v>8</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="B442" t="s">
         <v>8</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="B443" t="s">
         <v>8</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="B444" t="s">
         <v>8</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="B445" t="s">
         <v>8</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="B446" t="s">
         <v>8</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="447" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="B447" t="s">
         <v>8</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
     </row>
     <row r="448" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="B448" t="s">
         <v>8</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
     </row>
     <row r="449" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="B449" t="s">
         <v>8</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="B450" t="s">
         <v>8</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B451" t="s">
         <v>8</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="B452" t="s">
         <v>8</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="B453" t="s">
         <v>8</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="B454" t="s">
         <v>8</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="B455" t="s">
         <v>8</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="B456" t="s">
         <v>18</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="B457" t="s">
         <v>8</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="B458" t="s">
         <v>18</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="B459" t="s">
         <v>18</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="B460" t="s">
         <v>18</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="B461" t="s">
         <v>18</v>
@@ -8311,54 +8517,54 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="B462" t="s">
         <v>8</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="B463" t="s">
         <v>8</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="B464" t="s">
         <v>28</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="B465" t="s">
         <v>8</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="B467" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8382,227 +8588,227 @@
     </row>
     <row r="470" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="B470" t="s">
         <v>18</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="B471" t="s">
         <v>29</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="B472" t="s">
         <v>29</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
     </row>
     <row r="473" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="B473" t="s">
         <v>29</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="B474" t="s">
         <v>29</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="B475" t="s">
         <v>29</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="B476" t="s">
         <v>8</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="B477" t="s">
         <v>8</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="B478" t="s">
         <v>8</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="B479" t="s">
         <v>8</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="B480" t="s">
         <v>8</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="B481" t="s">
         <v>8</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="B482" t="s">
         <v>8</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="B483" t="s">
         <v>8</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="B484" t="s">
         <v>18</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="B485" t="s">
         <v>8</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="B486" t="s">
         <v>8</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
     </row>
     <row r="487" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="B487" t="s">
         <v>18</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
     </row>
     <row r="488" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="B488" t="s">
         <v>18</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
     </row>
     <row r="489" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="B489" t="s">
         <v>18</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="B490" t="s">
         <v>18</v>
@@ -8610,32 +8816,32 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="B491" t="s">
         <v>18</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="B492" t="s">
         <v>8</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="B494" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -8659,435 +8865,437 @@
     </row>
     <row r="497" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="B497" t="s">
         <v>18</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="498" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="B498" t="s">
         <v>18</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
     </row>
     <row r="499" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="B499" t="s">
         <v>28</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
     </row>
     <row r="500" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="B500" t="s">
         <v>18</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
     </row>
     <row r="501" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="B501" t="s">
         <v>18</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
     </row>
     <row r="502" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="B502" t="s">
         <v>18</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
     </row>
     <row r="503" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="B503" t="s">
         <v>18</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
     </row>
     <row r="504" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="B504" t="s">
         <v>18</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
     </row>
     <row r="505" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="B505" t="s">
         <v>28</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
     </row>
     <row r="506" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="B506" t="s">
         <v>28</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
     <row r="507" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="B507" t="s">
         <v>18</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
     </row>
     <row r="508" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="B508" t="s">
         <v>18</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="B509" t="s">
         <v>18</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="B510" t="s">
         <v>8</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="B511" t="s">
         <v>8</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="B512" t="s">
         <v>8</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="B513" t="s">
         <v>8</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="B514" t="s">
         <v>8</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="B515" t="s">
         <v>8</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="B516" t="s">
         <v>8</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="B517" t="s">
         <v>8</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="B518" t="s">
         <v>8</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="B519" t="s">
         <v>8</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="B520" t="s">
         <v>8</v>
       </c>
       <c r="D520" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="B521" t="s">
         <v>8</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="B522" t="s">
         <v>8</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="B523" t="s">
         <v>8</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="B524" t="s">
         <v>8</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="B525" t="s">
         <v>8</v>
       </c>
       <c r="D525" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="B526" t="s">
         <v>8</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="B527" t="s">
         <v>8</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="B528" t="s">
         <v>8</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="B529" t="s">
         <v>8</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="B530" t="s">
         <v>8</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="B531" t="s">
         <v>18</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="B532" t="s">
         <v>18</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="B533" t="s">
         <v>8</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="B534" t="s">
         <v>18</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="B535" t="s">
         <v>8</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/VoiceoverSheet.xlsx
+++ b/VoiceoverSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finn\Desktop\Medien- und Spielekonzeption\Spez. Game Elements\GameElements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameElements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C2FF78-0FA5-4605-B29D-5140124D9C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={E94C555D-50C7-4194-9AA0-5FDF29E9B619}</author>
     <author>tc={FD2E52E8-F883-485A-9115-81F82E7D2306}</author>
@@ -34,84 +33,174 @@
     <author>tc={3320F026-255A-4B3D-BC27-9E68FE65CD5F}</author>
   </authors>
   <commentList>
-    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{E94C555D-50C7-4194-9AA0-5FDF29E9B619}">
+    <comment ref="D36" authorId="0" shapeId="0">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Veränderung</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D44" authorId="1" shapeId="0" xr:uid="{FD2E52E8-F883-485A-9115-81F82E7D2306}">
+    <comment ref="D44" authorId="1" shapeId="0">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Missionsmarker</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D46" authorId="2" shapeId="0" xr:uid="{325A0BA8-640B-46C2-A91B-054B012B3FB9}">
+    <comment ref="D46" authorId="2" shapeId="0">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     nur Symbol...</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="3" shapeId="0" xr:uid="{0045E62F-83C8-4ABF-8EB6-FA7FA50AEE25}">
+    <comment ref="D48" authorId="3" shapeId="0">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Missionsmarker</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D69" authorId="4" shapeId="0" xr:uid="{8FACA130-821A-4A75-AA3D-1E319BEBC316}">
+    <comment ref="D69" authorId="4" shapeId="0">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Missionsmarker</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D74" authorId="5" shapeId="0" xr:uid="{A85F95FB-35E4-4F2F-BC60-22BDE7A3D460}">
+    <comment ref="D74" authorId="5" shapeId="0">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     euren neuen Körperteil</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D84" authorId="6" shapeId="0" xr:uid="{13A5A41A-BDAB-4B01-9781-942AD11EE0CF}">
+    <comment ref="D84" authorId="6" shapeId="0">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Körperteil-Karte</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D85" authorId="7" shapeId="0" xr:uid="{A11DFB4E-F489-4CB5-8371-E6BF7C30A54D}">
+    <comment ref="D85" authorId="7" shapeId="0">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Körperteil-Karte</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D120" authorId="8" shapeId="0" xr:uid="{89F48A0F-357A-4CDF-BCD3-DCE5F9841820}">
+    <comment ref="D120" authorId="8" shapeId="0">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     mehrere Veränderungen</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D121" authorId="9" shapeId="0" xr:uid="{3320F026-255A-4B3D-BC27-9E68FE65CD5F}">
+    <comment ref="D121" authorId="9" shapeId="0">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     mehrere Veränderungen</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -2833,8 +2922,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2968,12 +3057,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3743,10 +3826,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D535"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B115" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>

--- a/VoiceoverSheet.xlsx
+++ b/VoiceoverSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameElements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finn\Desktop\Medien- und Spielekonzeption\Spez. Game Elements\GameElements\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2BDF0D-172B-446A-8D6F-8DF5089C08C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -18,195 +19,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>tc={E94C555D-50C7-4194-9AA0-5FDF29E9B619}</author>
-    <author>tc={FD2E52E8-F883-485A-9115-81F82E7D2306}</author>
-    <author>tc={325A0BA8-640B-46C2-A91B-054B012B3FB9}</author>
-    <author>tc={0045E62F-83C8-4ABF-8EB6-FA7FA50AEE25}</author>
-    <author>tc={8FACA130-821A-4A75-AA3D-1E319BEBC316}</author>
-    <author>tc={A85F95FB-35E4-4F2F-BC60-22BDE7A3D460}</author>
-    <author>tc={13A5A41A-BDAB-4B01-9781-942AD11EE0CF}</author>
-    <author>tc={A11DFB4E-F489-4CB5-8371-E6BF7C30A54D}</author>
-    <author>tc={89F48A0F-357A-4CDF-BCD3-DCE5F9841820}</author>
-    <author>tc={3320F026-255A-4B3D-BC27-9E68FE65CD5F}</author>
-  </authors>
-  <commentList>
-    <comment ref="D36" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
-    Veränderung</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D44" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
-    Missionsmarker</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D46" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
-    nur Symbol...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D48" authorId="3" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
-    Missionsmarker</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D69" authorId="4" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
-    Missionsmarker</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D74" authorId="5" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
-    euren neuen Körperteil</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D84" authorId="6" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
-    Körperteil-Karte</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D85" authorId="7" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
-    Körperteil-Karte</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D120" authorId="8" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
-    mehrere Veränderungen</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D121" authorId="9" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
-    mehrere Veränderungen</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="903">
   <si>
@@ -2889,40 +2701,460 @@
     <t>Dann wird hier wohl nichts mehr zu holen sein.</t>
   </si>
   <si>
-    <t>Als Crew seid ihr nun komplett und fast bereit euer Abenteuer zu starten. Bevor es los geht [Komma] müsst ihr nur noch einen Käpt‘n ernennen. Der Spieler, der als Käpt’n ernannt wird, hat im Spiel die Aufgabe die Crew zusammen zu halten. Sollte sich die Crew bei einer Entscheidung nicht einigen können, vermittelt der Käpt’n zwischen den Spielern, sodass alle in das Spielgeschehen eingebunden werden.\r\nDer Käpt’n erhält den Papagei des Käpt’n und kann sich diesen auf die Schulter klemmen.</t>
-  </si>
-  <si>
-    <t>Der Aufstieg gestaltet sich als schwieriger als gedacht (legt einen Rationsmarker ab). Als ihr endlich auf dem Gipfel ankommt, dämmert es bereits. So wirkt die alte Frau, die euch nun entgegen tritt noch ein wenig mystischer. \n"Verdammte, seid willkommen! Ihr solltet in Zukunft vorsichtiger mit eurem Schiff umgehen, denn euch steht eine schwere Aufgabe bevor. Ruht euch also aus und macht euch morgen auf den Weg nach Lanun Harbour. Ihr werdet dort bereits erwartet." \nAls ihr am nächsten Tag wieder am Strand ankommt, stellt ihr zu eurer Verwunderung fest, dass euer Schiff vollkommen unbeschadet in sicherem Abstand zur Felseninsel vor Anker liegt.\n\n(Legt den [Missionsmarker] auf das Feld Lanun Harbour)</t>
-  </si>
-  <si>
-    <t>Sobald ihr auf ein Feld mit einem Symbol zieht (auch, wenn ihr nur darüber ziehen wolltet), müsst ihr zunächst stehen bleiben und in der App das entsprechende Symbol antippen.\n\n-&gt; Zieht jetzt auf direktem Weg nach Lanun Harbour! Dafür müsst ihr erst auf das leere Feld vor Lanun Harbour ziehen und dafür eine Ration abgeben und dann auf das Feld Lanun Harbour ziehen und dafür eine weitere Ration abgeben. Da auf dem Feld Lanun Harbour ein Symbol ist, dürft ihr nun nicht weiter ziehen, sondern müsst anschließend der App das entsprechende Symbol antippen.</t>
-  </si>
-  <si>
-    <t>Nachdem ihr euch von dem Schock etwas erholt habt, macht ihr euch daran euer Schiff wieder auf Vordermann zu bringen. Nachdem ihr die Schäden repariert habt, belohnt ihr euch mit einem ordentlichen Mahl (legt einen Rationsmarker ab). \nZufrieden legt ihr euch schlafen. Doch im Schlaf hört ihr ein seltsames Flüstern: "Fahrt nach Lanun Harbour! Ein alter Freund erwartet euch..." \n\n(Legt den [Missionsmarker] auf das Feld Lanun Harbour)</t>
-  </si>
-  <si>
-    <t>(Nehmt den [Missionsmarker] vom Spielplan)\n\nAls ihr in Lanun Harbour anlegt, kommt euch sofort ein alter Seemann aus dem wuseligen Treiben im Hafen entgegen. Euch fällt auf, dass vielen Menschen, die unterwegs sind, Gliedmaßen fehlen. So auch dem Seemann, der mit seinem Holzbein auf euch zugestakst kommt. Er nimmt euch mit in seine Taverne.\n"Da seid ihr ja endlich! Mensch, ihr seht ja völlig verdattert aus... Wisst ihr denn gar nicht, warum ihr eigentlich hergekommen seid? Habt ihr den Auftrag an eurem Papageien etwa noch nicht gefunden?"\n\n(Guckt euch den Brief in der Flasche am Papagei an.)</t>
-  </si>
-  <si>
-    <t>Einen Moment lang wirkt es so, als würden sich die drei etwas beruhigen. Doch als sie [euren neuen Körperteil] sehen, stürzen sie sofort auf euch zu.</t>
-  </si>
-  <si>
-    <t>(Nehmt die "Holzbein"-Karte (17) und legt sie an die entsprechende Stelle auf den Charakterbogen eines eurer Charaktere. Hinweis: Liegt an dieser Stelle bereits [eine Körperteil-Karte], so muss dieses entfernt werden.)\n\n"Das hier habe ich... nun ja sagen wir von einem großzügigen Spender bekommen. Ich hoffe ihr habt mir gut zugeschaut. Ich gebe euch etwas von meinem Werkzeug mit, dann könnt ihr solche Operationen zukünftig auch selber durchführen... Jetzt aber nichts wie hoch. Ihr seht aus, als könntet ihr noch den ein oder anderen Grog gebrauchen."</t>
-  </si>
-  <si>
-    <t>(Nehmt die "Schuppiger Arm"-Karte (18) und legt sie an die entsprechende Stelle auf den Charakterbogen eines eurer Charaktere. Hinweis: Liegt an dieser Stelle bereits [eine Körperteil-Karte], so muss dieses entfernt werden.)\n\n"Das hier habe ich... nun ja sagen wir von einem großzügigen Spender bekommen. Ich hoffe ihr habt mir gut zugeschaut. Ich gebe euch etwas von meinem Werkzeug mit, dann könnt ihr solche Operationen zukünftig auch selber durchführen... Jetzt aber nichts wie hoch. Ihr seht aus, als könntet ihr noch den ein oder anderen Grog gebrauchen."</t>
-  </si>
-  <si>
-    <t>Ihr erhaltet [einen Körperteil]! Eine Hakenhand (36).\nAllerdings hat einer von euch im Kampf ganzschön einen mitbekommen, und verliert somit [einen Körperteil]! (Ihr verliert [var=Part1]).\n\nHinweis: Erhaltet ihr [eine Körperteil-Karte] nach einem Kampf, so müsst ihr [diese] entweder direkt anlegen und dafür gegebenenfalls [eine andere Körperteil-Karte] ablegen oder [die neu erhaltene Körperteil-Karte] ablehnen. Körperteile können nicht für später aufbewahrt werden.</t>
-  </si>
-  <si>
-    <t>Ihr erhaltet [einen Körperteil]! Eine Hakenhand (36).\n\nHinweis: Erhaltet ihr [eine Körperteil-Karte] nach einem Kampf, so müsst ihr [diese] entweder direkt anlegen und dafür gegebenenfalls [eine andere Körperteil-Karte] ablegen oder [die neu erhaltene Körperteil-Karte] ablehnen. Körperteile können nicht für später aufbewahrt werden.</t>
+    <r>
+      <t>Als Crew seid ihr nun komplett und fast bereit euer Abenteuer zu starten. Bevor es los geht</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, [Komma]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> müsst ihr nur noch einen Käpt‘n ernennen. Der Spieler, der als Käpt’n ernannt wird, hat im Spiel die Aufgabe die Crew zusammen zu halten. Sollte sich die Crew bei einer Entscheidung nicht einigen können, vermittelt der Käpt’n zwischen den Spielern, sodass alle in das Spielgeschehen eingebunden werden.\r\nDer Käpt’n erhält den Papagei des Käpt’n und kann sich diesen auf die Schulter klemmen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Der Aufstieg gestaltet sich als schwieriger als gedacht (legt einen Rationsmarker ab). Als ihr endlich auf dem Gipfel ankommt, dämmert es bereits. So wirkt die alte Frau, die euch nun entgegen tritt noch ein wenig mystischer. \n"Verdammte, seid willkommen! Ihr solltet in Zukunft vorsichtiger mit eurem Schiff umgehen, denn euch steht eine schwere Aufgabe bevor. Ruht euch also aus und macht euch morgen auf den Weg nach Lanun Harbour. Ihr werdet dort bereits erwartet." \nAls ihr am nächsten Tag wieder am Strand ankommt, stellt ihr zu eurer Verwunderung fest, dass euer Schiff vollkommen unbeschadet in sicherem Abstand zur Felseninsel vor Anker liegt.\n\n(Legt den </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Missionsmarker </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>auf das Feld Lanun Harbour)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sobald ihr auf ein Feld mit einem </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Symbol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zieht (auch, wenn ihr nur darüber ziehen wolltet), müsst ihr zunächst stehen bleiben und in der App das entsprechende Symbol antippen.\n\n-&gt; Zieht jetzt auf direktem Weg nach Lanun Harbour! Dafür müsst ihr erst auf das leere Feld vor Lanun Harbour ziehen und dafür eine Ration abgeben und dann auf das Feld Lanun Harbour ziehen und dafür eine weitere Ration abgeben. Da auf dem Feld Lanun Harbour ein </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Symbol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ist, dürft ihr nun nicht weiter ziehen, sondern müsst anschließend der App das entsprechende Symbol antippen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nachdem ihr euch von dem Schock etwas erholt habt, macht ihr euch daran euer Schiff wieder auf Vordermann zu bringen. Nachdem ihr die Schäden repariert habt, belohnt ihr euch mit einem ordentlichen Mahl (legt einen Rationsmarker ab). \nZufrieden legt ihr euch schlafen. Doch im Schlaf hört ihr ein seltsames Flüstern: "Fahrt nach Lanun Harbour! Ein alter Freund erwartet euch..." \n\n(Legt den </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Missionsmarker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> auf das Feld Lanun Harbour)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(Nehmt den </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Missionsmarker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vom Spielplan)\n\nAls ihr in Lanun Harbour anlegt, kommt euch sofort ein alter Seemann aus dem wuseligen Treiben im Hafen entgegen. Euch fällt auf, dass vielen Menschen, die unterwegs sind, Gliedmaßen fehlen. So auch dem Seemann, der mit seinem Holzbein auf euch zugestakst kommt. Er nimmt euch mit in seine Taverne.\n"Da seid ihr ja endlich! Mensch, ihr seht ja völlig verdattert aus... Wisst ihr denn gar nicht, warum ihr eigentlich hergekommen seid? Habt ihr den Auftrag an eurem Papageien etwa noch nicht gefunden?"\n\n(Guckt euch den Brief in der Flasche am Papagei an.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Einen Moment lang wirkt es so, als würden sich die drei etwas beruhigen. Doch als sie </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>euren neuen Körperteil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sehen, stürzen sie sofort auf euch zu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(Nehmt die "Holzbein"-Karte (17) und legt sie an die entsprechende Stelle auf den Charakterbogen eines eurer Charaktere. Hinweis: Liegt an dieser Stelle bereits </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eine Körperteil-Karte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, so muss dieses entfernt werden.)\n\n"Das hier habe ich... nun ja sagen wir von einem großzügigen Spender bekommen. Ich hoffe ihr habt mir gut zugeschaut. Ich gebe euch etwas von meinem Werkzeug mit, dann könnt ihr solche Operationen zukünftig auch selber durchführen... Jetzt aber nichts wie hoch. Ihr seht aus, als könntet ihr noch den ein oder anderen Grog gebrauchen."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(Nehmt die "Schuppiger Arm"-Karte (18) und legt sie an die entsprechende Stelle auf den Charakterbogen eines eurer Charaktere. Hinweis: Liegt an dieser Stelle bereits </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eine Körperteil-Karte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, so muss dieses entfernt werden.)\n\n"Das hier habe ich... nun ja sagen wir von einem großzügigen Spender bekommen. Ich hoffe ihr habt mir gut zugeschaut. Ich gebe euch etwas von meinem Werkzeug mit, dann könnt ihr solche Operationen zukünftig auch selber durchführen... Jetzt aber nichts wie hoch. Ihr seht aus, als könntet ihr noch den ein oder anderen Grog gebrauchen."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ihr erhaltet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>einen Körperteil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">! Eine Hakenhand (36).\nAllerdings hat einer von euch im Kampf ganzschön einen mitbekommen, und verliert somit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>einen Körperteil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">! (Ihr verliert [var=Part1]).\n\nHinweis: Erhaltet ihr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eine Körperteil-Karte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nach einem Kampf, so müsst ihr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>diese</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> entweder direkt anlegen und dafür gegebenenfalls </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eine andere Körperteil-Karte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ablegen oder </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>die neu erhaltene Körperteil-Karte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ablehnen. Körperteile können nicht für später aufbewahrt werden.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ihr erhaltet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>einen Körperteil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">! Eine Hakenhand (36).\n\nHinweis: Erhaltet ihr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eine Körperteil-Karte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nach einem Kampf, so müsst ihr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>diese</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> entweder direkt anlegen und dafür gegebenenfalls </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eine andere Körperteil-Karte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ablegen oder </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>die neu erhaltene Körperteil-Karte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ablehnen. Körperteile können nicht für später aufbewahrt werden.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3524,9 +3756,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Finn Logemann" id="{A6EBBD98-08F8-41C4-A7B1-478A4B9A0F41}" userId="Finn Logemann" providerId="None"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3790,47 +4020,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D36" dT="2022-01-29T20:03:07.32" personId="{A6EBBD98-08F8-41C4-A7B1-478A4B9A0F41}" id="{E94C555D-50C7-4194-9AA0-5FDF29E9B619}">
-    <text>Veränderung</text>
-  </threadedComment>
-  <threadedComment ref="D44" dT="2022-01-29T20:25:54.04" personId="{A6EBBD98-08F8-41C4-A7B1-478A4B9A0F41}" id="{FD2E52E8-F883-485A-9115-81F82E7D2306}">
-    <text>Missionsmarker</text>
-  </threadedComment>
-  <threadedComment ref="D46" dT="2022-01-29T20:36:36.92" personId="{A6EBBD98-08F8-41C4-A7B1-478A4B9A0F41}" id="{325A0BA8-640B-46C2-A91B-054B012B3FB9}">
-    <text>nur Symbol...</text>
-  </threadedComment>
-  <threadedComment ref="D48" dT="2022-01-29T20:51:02.93" personId="{A6EBBD98-08F8-41C4-A7B1-478A4B9A0F41}" id="{0045E62F-83C8-4ABF-8EB6-FA7FA50AEE25}">
-    <text>Missionsmarker</text>
-  </threadedComment>
-  <threadedComment ref="D69" dT="2022-01-29T21:01:54.41" personId="{A6EBBD98-08F8-41C4-A7B1-478A4B9A0F41}" id="{8FACA130-821A-4A75-AA3D-1E319BEBC316}">
-    <text>Missionsmarker</text>
-  </threadedComment>
-  <threadedComment ref="D74" dT="2022-01-29T21:23:49.14" personId="{A6EBBD98-08F8-41C4-A7B1-478A4B9A0F41}" id="{A85F95FB-35E4-4F2F-BC60-22BDE7A3D460}">
-    <text>euren neuen Körperteil</text>
-  </threadedComment>
-  <threadedComment ref="D84" dT="2022-01-29T21:55:44.57" personId="{A6EBBD98-08F8-41C4-A7B1-478A4B9A0F41}" id="{13A5A41A-BDAB-4B01-9781-942AD11EE0CF}">
-    <text>Körperteil-Karte</text>
-  </threadedComment>
-  <threadedComment ref="D85" dT="2022-01-29T22:02:49.96" personId="{A6EBBD98-08F8-41C4-A7B1-478A4B9A0F41}" id="{A11DFB4E-F489-4CB5-8371-E6BF7C30A54D}">
-    <text>Körperteil-Karte</text>
-  </threadedComment>
-  <threadedComment ref="D120" dT="2022-01-29T22:16:47.19" personId="{A6EBBD98-08F8-41C4-A7B1-478A4B9A0F41}" id="{89F48A0F-357A-4CDF-BCD3-DCE5F9841820}">
-    <text>mehrere Veränderungen</text>
-  </threadedComment>
-  <threadedComment ref="D121" dT="2022-01-29T22:16:47.19" personId="{A6EBBD98-08F8-41C4-A7B1-478A4B9A0F41}" id="{3320F026-255A-4B3D-BC27-9E68FE65CD5F}">
-    <text>mehrere Veränderungen</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D535"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9379,6 +9574,5 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/VoiceoverSheet.xlsx
+++ b/VoiceoverSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finn\Desktop\Medien- und Spielekonzeption\Spez. Game Elements\GameElements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2BDF0D-172B-446A-8D6F-8DF5089C08C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEFE075-93FD-4EA7-A3A7-09434A21A27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -607,21 +607,12 @@
     <t>Menara_5_295</t>
   </si>
   <si>
-    <t>"Keiner weiß, wo sich der Schatz von Harta Karun befindet... selbst ich nicht. Aber immer wieder sehe ich wagemutige Schatzsucher wie euch, die sich auf die Suche nach dem Schatz machen. Die wenigsten von ihnen werden je wieder gesehen. Und wer doch zurückkehrt, hat den Verstand auf der Suche verloren. Einige dieser armen Seelen fristen auf Kura-Kura ihr Dasein.\nDort findet ihr sicher mehr heraus..."\n\n(Legt den Hauptmissionsmarker auf das Feld "Kura-Kura")</t>
-  </si>
-  <si>
     <t>Menara_5_297</t>
   </si>
   <si>
-    <t>"Das ist sehr großzügig von euch. Wenn ihr nach Antworten sucht, fahrt nach Kura-Kura. Aber seht euch vor, es heißt, dass jeder auf dieser Insel verrückt geworden ist."\n\n(Legt den Hauptmissionsmarker auf das Feld "Kura-Kura")</t>
-  </si>
-  <si>
     <t>Menara_5_298</t>
   </si>
   <si>
-    <t>Manche sagen, Hamba sei eine gemeine Hexe, aber ich weiß, dass das nicht stimmt. Sonst würde sie nicht jede Nacht zu mir kommen und mir von meinen Eltern erzählen.\nSie wohnt auf einer einsamen Insel mit großen Klippen.</t>
-  </si>
-  <si>
     <t>Menara_5_299</t>
   </si>
   <si>
@@ -766,15 +757,9 @@
     <t>Gruppe_Verrückter_6_107</t>
   </si>
   <si>
-    <t>Als ihr ihnen näherkommt, fallen euch besonders die leeren Blicke der Menschen auf. Völlig in den Bann gezogen, seid ihr wie hypnotisiert und passt euch den rhythmischen Schritten der Horde an. Plötzlich steht ihr ihnen direkt gegenüber.</t>
-  </si>
-  <si>
     <t>Gruppe_Verrückter_6_108</t>
   </si>
   <si>
-    <t>Ohne euch nach ihr umzusehen, lauft ihr so schnell es geht an der Horde vorbei. Auf dem Hügel angekommen, seht ihr, wie sich die Gruppe langsam zu euch umdreht und in rhythmischen Bewegungen auf euch zu kommt.</t>
-  </si>
-  <si>
     <t>Gruppe_Verrückter_6_109</t>
   </si>
   <si>
@@ -808,9 +793,6 @@
     <t>Gruppe_Verrückter_6_114</t>
   </si>
   <si>
-    <t>Deine Klinge macht kurzen Prozess mit zwei der Verrückten. Doch als du dich damit offenbarst, dreht sich der Rest der Horde zu dir um. Die anderen Abenteurer können sich dadurch allerdings aus dem Bann befreien und ihr kämpft gemeinsam gegen die übrigen vier aus der Gruppe.</t>
-  </si>
-  <si>
     <t>Gruppe_Verrückter_6_115</t>
   </si>
   <si>
@@ -850,9 +832,6 @@
     <t>Gruppe_Verrückter_6_121</t>
   </si>
   <si>
-    <t>Nach einem zähen Kampf  habt ihr Schaden genommen. Ihr konntet die Verrückten jedoch in die Flucht schlagen.</t>
-  </si>
-  <si>
     <t>Gruppe_Verrückter_6_122</t>
   </si>
   <si>
@@ -1180,15 +1159,9 @@
     <t>Erzähler_6_522</t>
   </si>
   <si>
-    <t>Im Kampf erleidet ihr einige schwere Verluste! (Ihr verliert [var=Part1], [var=Part2], [var=Part3] und [var=Part4].)\n\nAllerdings findet ihr auch einn paar außergewöhnliche Körperteile: Eine Taucherhose (21), einen Scherenarm (22) und einen Affenarm (24).\n\nAußerdem findet ihr 3 Rationen bei den Verrückten (ihr erhaltet 3 Rationen.)</t>
-  </si>
-  <si>
     <t>Erzähler_6_523</t>
   </si>
   <si>
-    <t>Im Kampf erleidet ihr einige schwere Verluste! (Ihr verliert [var=Part1], [var=Part2], [var=Part3] und [var=Part4].)\n\nAllerdings findet ihr auch einn paar außergewöhnliche Körperteile: Eine Taucherhose (21) und einen Scherenarm (22).\n\nAußerdem findet ihr 3 Rationen bei den Verrückten (ihr erhaltet 3 Rationen.)</t>
-  </si>
-  <si>
     <t>Erzähler_6_524</t>
   </si>
   <si>
@@ -1282,9 +1255,6 @@
     <t>Piratenbande_7_534</t>
   </si>
   <si>
-    <t>Der Anführer stimmt einem Armdrückduell mit dir zu. Wenn du gewinnst, bekommt ihr Rationen, wenn du verlierst, musst du den Gaunern einen Monat lang die Füße massieren.\n\n*Wirf wie im Kampf bis zu drei mal mit den Würfeln und lege nach jedem Wurf beliebige Würfel zur Seite.\nDu gewinnst, wenn nach drei Würfen keine schwarzen oder weißen Würfel hast.</t>
-  </si>
-  <si>
     <t>Piratenbande_7_535</t>
   </si>
   <si>
@@ -1318,9 +1288,6 @@
     <t>Piratenbande_7_541</t>
   </si>
   <si>
-    <t>Die Gauner stimmen zu.\n\n*Wirf wie im Kampf bis zu drei mal mit den Würfeln und lege nach jedem Wurf beliebige Würfel zur Seite.\nDu gewinnst, wenn nach drei Würfen keine roten oder blauen Würfel hast.</t>
-  </si>
-  <si>
     <t>Piratenbande_7_542</t>
   </si>
   <si>
@@ -1598,9 +1565,6 @@
   </si>
   <si>
     <t>Alter_Greis_7_596</t>
-  </si>
-  <si>
-    <t>Der Kompass weist euch den Weg zum Ziel eurer Reise: Harta Karun!\n\n(Legt den Hauptmissionsmarker auf Harta Karun.)</t>
   </si>
   <si>
     <t>Players_All_7_597</t>
@@ -3148,6 +3112,313 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> ablehnen. Körperteile können nicht für später aufbewahrt werden.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"Keiner weiß, wo sich der Schatz von Harta Karun befindet... selbst ich nicht. Aber immer wieder sehe ich wagemutige Schatzsucher wie euch, die sich auf die Suche nach dem Schatz machen. Die wenigsten von ihnen werden je wieder gesehen. Und wer doch zurückkehrt, hat den Verstand auf der Suche verloren. Einige dieser armen Seelen fristen auf Kura-Kura ihr Dasein.\nDort findet ihr sicher mehr heraus..."\n\n(Legt den </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Missionsmarker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> auf das Feld "Kura-Kura")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"Das ist sehr großzügig von euch. Wenn ihr nach Antworten sucht, fahrt nach Kura-Kura. Aber seht euch vor, es heißt, dass jeder auf dieser Insel verrückt geworden ist."\n\n(Legt den </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Missionsmarker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> auf das Feld "Kura-Kura")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Anführungszeichen]"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manche sagen, Hamba sei eine gemeine Hexe, aber ich weiß, dass das nicht stimmt. Sonst würde sie nicht jede Nacht zu mir kommen und mir von meinen Eltern erzählen.\nSie wohnt auf einer einsamen Insel mit großen Klippen.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Als ihr ihnen näherkommt, fallen euch besonders die leeren Blicke der Menschen auf. Völlig in den Bann gezogen, seid ihr wie hypnotisiert und passt euch den rhythmischen Schritten der </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gruppe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> an. Plötzlich steht ihr ihnen direkt gegenüber.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ohne euch nach ihr umzusehen, lauft ihr so schnell es geht an der </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gruppe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vorbei. Auf dem Hügel angekommen, seht ihr, wie sich die Gruppe langsam zu euch umdreht und in rhythmischen Bewegungen auf euch zu kommt.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deine Klinge macht kurzen Prozess mit zwei der Verrückten. Doch als du dich damit offenbarst, dreht sich der Rest der </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gruppe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zu dir um. Die anderen Abenteurer können sich dadurch allerdings aus dem Bann befreien und ihr kämpft gemeinsam gegen die übrigen vier aus der Gruppe.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nach einem zähen Kampf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Leerzeichen entfernen]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> habt ihr Schaden genommen. Ihr konntet die Verrückten jedoch in die Flucht schlagen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Im Kampf erleidet ihr einige schwere Verluste! (Ihr verliert [var=Part1], [var=Part2], [var=Part3] und [var=Part4].)\n\nAllerdings findet ihr auch ein </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[ein n zu viel]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> paar außergewöhnliche Körperteile: Eine Taucherhose (21), einen Scherenarm (22) und einen Affenarm (24).\n\nAußerdem findet ihr 3 Rationen bei den Verrückten (ihr erhaltet 3 Rationen.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Im Kampf erleidet ihr einige schwere Verluste! (Ihr verliert [var=Part1], [var=Part2], [var=Part3] und [var=Part4].)\n\nAllerdings findet ihr auch ein </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[ein n zu viel]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> paar außergewöhnliche Körperteile: Eine Taucherhose (21) und einen Scherenarm (22).\n\nAußerdem findet ihr 3 Rationen bei den Verrückten (ihr erhaltet 3 Rationen.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Die Gauner stimmen zu.\n\n*Wirf wie im Kampf bis zu drei mal mit den Würfeln und lege nach jedem Wurf beliebige Würfel zur Seite.\nDu gewinnst, wenn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">du </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nach drei Würfen keine roten oder blauen Würfel hast.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Der Anführer stimmt einem Armdrückduell mit dir zu. Wenn du gewinnst, bekommt ihr Rationen, wenn du verlierst, musst du den Gaunern einen Monat lang die Füße massieren.\n\n*Wirf wie im Kampf bis zu drei mal mit den Würfeln und lege nach jedem Wurf beliebige Würfel zur Seite.\nDu gewinnst, wenn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>du</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nach drei Würfen keine schwarzen oder weißen Würfel hast.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Der Kompass weist euch den Weg zum Ziel eurer Reise: Harta Karun!\n\n(Legt den </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Missionsmarker </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>auf Harta Karun.)</t>
     </r>
   </si>
 </sst>
@@ -3755,10 +4026,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -4024,8 +4291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D535"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A327" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D338" sqref="D338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4258,7 +4525,7 @@
         <v>18</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4329,7 +4596,7 @@
         <v>18</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -4351,7 +4618,7 @@
         <v>18</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -4373,7 +4640,7 @@
         <v>18</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4587,7 +4854,7 @@
         <v>17</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -4642,7 +4909,7 @@
         <v>17</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4752,7 +5019,7 @@
         <v>17</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -4763,7 +5030,7 @@
         <v>17</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5148,7 +5415,7 @@
         <v>18</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5159,7 +5426,7 @@
         <v>18</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -5271,221 +5538,221 @@
         <v>19</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>195</v>
+        <v>891</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B134" t="s">
         <v>19</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>197</v>
+        <v>892</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B135" t="s">
         <v>19</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>199</v>
+        <v>893</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B136" t="s">
         <v>19</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B139" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B141" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B143" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B151" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B152" t="s">
         <v>19</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B153" t="s">
         <v>8</v>
@@ -5496,84 +5763,84 @@
     </row>
     <row r="154" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B154" t="s">
         <v>19</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B155" t="s">
         <v>19</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B156" t="s">
         <v>19</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B157" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B158" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B159" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B160" t="s">
         <v>19</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B161" t="s">
         <v>8</v>
@@ -5584,10 +5851,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B163" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -5611,810 +5878,810 @@
     </row>
     <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B166" t="s">
         <v>20</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>248</v>
+        <v>894</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B167" t="s">
         <v>20</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>250</v>
+        <v>895</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B168" t="s">
         <v>20</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B169" t="s">
         <v>20</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B170" t="s">
         <v>20</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B171" t="s">
         <v>20</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B172" t="s">
         <v>20</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B173" t="s">
         <v>20</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>262</v>
+        <v>896</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B174" t="s">
         <v>20</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B175" t="s">
         <v>20</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B176" t="s">
         <v>20</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B177" t="s">
         <v>20</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B178" t="s">
         <v>20</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B179" t="s">
         <v>20</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B180" t="s">
         <v>20</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>276</v>
+        <v>897</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B181" t="s">
         <v>20</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>21</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B183" t="s">
         <v>21</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B184" t="s">
         <v>21</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B185" t="s">
         <v>21</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B186" t="s">
         <v>21</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B187" t="s">
         <v>21</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B188" t="s">
         <v>21</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B189" t="s">
         <v>21</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B190" t="s">
         <v>21</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B191" t="s">
         <v>21</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B192" t="s">
         <v>20</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B193" t="s">
         <v>20</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B194" t="s">
         <v>8</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B196" t="s">
         <v>8</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B197" t="s">
         <v>8</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B198" t="s">
         <v>8</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B199" t="s">
         <v>8</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B200" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B201" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B202" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B203" t="s">
         <v>8</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B204" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B205" t="s">
         <v>8</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B206" t="s">
         <v>8</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B207" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B208" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B209" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B210" t="s">
         <v>8</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B211" t="s">
         <v>8</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B212" t="s">
         <v>8</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B213" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B214" t="s">
         <v>8</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B215" t="s">
         <v>8</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B216" t="s">
         <v>8</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B217" t="s">
         <v>8</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B218" t="s">
         <v>8</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B219" t="s">
         <v>8</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B220" t="s">
         <v>8</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B221" t="s">
         <v>8</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B222" t="s">
         <v>8</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B223" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B224" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B225" t="s">
         <v>8</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B226" t="s">
         <v>8</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B227" t="s">
         <v>8</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B228" t="s">
         <v>8</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B229" t="s">
         <v>8</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B230" t="s">
         <v>8</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B231" t="s">
         <v>8</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B232" t="s">
         <v>8</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B233" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B234" t="s">
         <v>8</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B235" t="s">
         <v>8</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B236" t="s">
         <v>8</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B237" t="s">
         <v>8</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B238" t="s">
         <v>8</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B239" t="s">
         <v>18</v>
@@ -6425,51 +6692,51 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B240" t="s">
         <v>8</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B241" t="s">
         <v>18</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B242" t="s">
         <v>18</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>386</v>
+        <v>898</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B243" t="s">
         <v>18</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>388</v>
+        <v>899</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B244" t="s">
         <v>18</v>
@@ -6477,18 +6744,18 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B245" t="s">
         <v>20</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B246" t="s">
         <v>8</v>
@@ -6499,7 +6766,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B247" t="s">
         <v>8</v>
@@ -6510,54 +6777,54 @@
     </row>
     <row r="248" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B248" t="s">
         <v>20</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B249" t="s">
         <v>8</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B250" t="s">
         <v>18</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B251" t="s">
         <v>8</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B253" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -6581,667 +6848,667 @@
     </row>
     <row r="256" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B256" t="s">
         <v>18</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B257" t="s">
         <v>18</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B258" t="s">
         <v>18</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B259" t="s">
         <v>18</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B260" t="s">
         <v>22</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B261" t="s">
         <v>22</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B262" t="s">
         <v>22</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B263" t="s">
         <v>22</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B264" t="s">
         <v>22</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>420</v>
+        <v>901</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B265" t="s">
         <v>22</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B266" t="s">
         <v>22</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B267" t="s">
         <v>22</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B268" t="s">
         <v>22</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B269" t="s">
         <v>22</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B270" t="s">
         <v>22</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B271" t="s">
         <v>22</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>432</v>
+        <v>900</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B272" t="s">
         <v>22</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B273" t="s">
         <v>23</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B274" t="s">
         <v>22</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B275" t="s">
         <v>22</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B276" t="s">
         <v>22</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B277" t="s">
         <v>23</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B278" t="s">
         <v>23</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="B279" t="s">
         <v>8</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B280" t="s">
         <v>8</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B281" t="s">
         <v>8</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="B282" t="s">
         <v>8</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B283" t="s">
         <v>8</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B284" t="s">
         <v>8</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B285" t="s">
         <v>8</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B286" t="s">
         <v>8</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B287" t="s">
         <v>8</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B288" t="s">
         <v>8</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B289" t="s">
         <v>8</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B290" t="s">
         <v>8</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B291" t="s">
         <v>8</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B292" t="s">
         <v>8</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B293" t="s">
         <v>8</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="B294" t="s">
         <v>8</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B295" t="s">
         <v>8</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B296" t="s">
         <v>8</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="B297" t="s">
         <v>8</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B298" t="s">
         <v>8</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B299" t="s">
         <v>8</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="B300" t="s">
         <v>8</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="B301" t="s">
         <v>8</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="B302" t="s">
         <v>8</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="B303" t="s">
         <v>8</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="B304" t="s">
         <v>8</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="B305" t="s">
         <v>8</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="B306" t="s">
         <v>8</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="B307" t="s">
         <v>8</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B308" t="s">
         <v>8</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="B309" t="s">
         <v>8</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="B310" t="s">
         <v>8</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="B311" t="s">
         <v>8</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="B312" t="s">
         <v>8</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="B313" t="s">
         <v>8</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B314" t="s">
         <v>8</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B315" t="s">
         <v>8</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B316" t="s">
         <v>18</v>
@@ -7252,7 +7519,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B317" t="s">
         <v>8</v>
@@ -7263,40 +7530,40 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="B318" t="s">
         <v>18</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="B319" t="s">
         <v>18</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B320" t="s">
         <v>18</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="B321" t="s">
         <v>18</v>
@@ -7304,142 +7571,142 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B322" t="s">
         <v>8</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="B323" t="s">
         <v>23</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="B324" t="s">
         <v>8</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="B325" t="s">
         <v>8</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B326" t="s">
         <v>23</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>526</v>
+        <v>902</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="B327" t="s">
         <v>8</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="B328" t="s">
         <v>18</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="B329" t="s">
         <v>23</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B330" t="s">
         <v>18</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="B331" t="s">
         <v>8</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="B332" t="s">
         <v>18</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="B333" t="s">
         <v>8</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="B335" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -7463,194 +7730,194 @@
     </row>
     <row r="338" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="B338" t="s">
         <v>25</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="B339" t="s">
         <v>25</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B340" t="s">
         <v>25</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B341" t="s">
         <v>24</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B342" t="s">
         <v>25</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B343" t="s">
         <v>18</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="B344" t="s">
         <v>24</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="B345" t="s">
         <v>25</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="B346" t="s">
         <v>25</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="B347" t="s">
         <v>8</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B348" t="s">
         <v>8</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="B349" t="s">
         <v>8</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="B350" t="s">
         <v>8</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B351" t="s">
         <v>8</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="B352" t="s">
         <v>8</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B353" t="s">
         <v>8</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="B354" t="s">
         <v>8</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B355" t="s">
         <v>18</v>
@@ -7661,7 +7928,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="B356" t="s">
         <v>8</v>
@@ -7672,40 +7939,40 @@
     </row>
     <row r="357" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="B357" t="s">
         <v>18</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="B358" t="s">
         <v>18</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="B359" t="s">
         <v>18</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="B360" t="s">
         <v>18</v>
@@ -7713,73 +7980,73 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="B361" t="s">
         <v>8</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B362" t="s">
         <v>24</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="B363" t="s">
         <v>8</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="B364" t="s">
         <v>24</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B365" t="s">
         <v>24</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="B366" t="s">
         <v>24</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="B367" t="s">
         <v>24</v>
@@ -7787,73 +8054,73 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="B368" t="s">
         <v>8</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B369" t="s">
         <v>24</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B370" t="s">
         <v>8</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="B371" t="s">
         <v>24</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="B372" t="s">
         <v>24</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="B373" t="s">
         <v>24</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="B374" t="s">
         <v>24</v>
@@ -7861,62 +8128,62 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B375" t="s">
         <v>24</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="B376" t="s">
         <v>8</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B377" t="s">
         <v>24</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="B378" t="s">
         <v>24</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="B379" t="s">
         <v>24</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="B380" t="s">
         <v>24</v>
@@ -7924,219 +8191,219 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="B381" t="s">
         <v>25</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="B382" t="s">
         <v>8</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="B383" t="s">
         <v>26</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="B384" t="s">
         <v>26</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="B385" t="s">
         <v>26</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="B386" t="s">
         <v>26</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="B387" t="s">
         <v>26</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="B388" t="s">
         <v>26</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="B389" t="s">
         <v>26</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="B390" t="s">
         <v>26</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="B391" t="s">
         <v>26</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="B392" t="s">
         <v>26</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="B393" t="s">
         <v>26</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="B394" t="s">
         <v>26</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="B395" t="s">
         <v>27</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="B396" t="s">
         <v>8</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B397" t="s">
         <v>24</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="B398" t="s">
         <v>18</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="B399" t="s">
         <v>8</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="B401" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -8160,579 +8427,579 @@
     </row>
     <row r="404" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="B404" t="s">
         <v>18</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="B405" t="s">
         <v>28</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="B406" t="s">
         <v>28</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="B407" t="s">
         <v>28</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="B408" t="s">
         <v>28</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="B409" t="s">
         <v>28</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="B410" t="s">
         <v>28</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="B411" t="s">
         <v>28</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="B412" t="s">
         <v>28</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="B413" t="s">
         <v>28</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="B414" t="s">
         <v>28</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="B415" t="s">
         <v>28</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B416" t="s">
         <v>28</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="B417" t="s">
         <v>28</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="B418" t="s">
         <v>28</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="B419" t="s">
         <v>28</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="B420" t="s">
         <v>28</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
     </row>
     <row r="421" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="B421" t="s">
         <v>28</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="B422" t="s">
         <v>28</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="B423" t="s">
         <v>28</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="B424" t="s">
         <v>28</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="B425" t="s">
         <v>28</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="B426" t="s">
         <v>28</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="B427" t="s">
         <v>28</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="B428" t="s">
         <v>8</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="B429" t="s">
         <v>8</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="B430" t="s">
         <v>8</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="B431" t="s">
         <v>8</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="B432" t="s">
         <v>8</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="B433" t="s">
         <v>8</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="B434" t="s">
         <v>8</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="B435" t="s">
         <v>8</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="B436" t="s">
         <v>8</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="B437" t="s">
         <v>8</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="B438" t="s">
         <v>8</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="B439" t="s">
         <v>8</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="B440" t="s">
         <v>8</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="B441" t="s">
         <v>8</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="B442" t="s">
         <v>8</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="B443" t="s">
         <v>8</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="B444" t="s">
         <v>8</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="B445" t="s">
         <v>8</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="B446" t="s">
         <v>8</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
     </row>
     <row r="447" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="B447" t="s">
         <v>8</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row r="448" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="B448" t="s">
         <v>8</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
     </row>
     <row r="449" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="B449" t="s">
         <v>8</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="B450" t="s">
         <v>8</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="B451" t="s">
         <v>8</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="B452" t="s">
         <v>8</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="B453" t="s">
         <v>8</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="B454" t="s">
         <v>8</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="B455" t="s">
         <v>8</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="B456" t="s">
         <v>18</v>
@@ -8743,7 +9010,7 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="B457" t="s">
         <v>8</v>
@@ -8754,40 +9021,40 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="B458" t="s">
         <v>18</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="B459" t="s">
         <v>18</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="B460" t="s">
         <v>18</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="B461" t="s">
         <v>18</v>
@@ -8795,54 +9062,54 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="B462" t="s">
         <v>8</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="B463" t="s">
         <v>8</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="B464" t="s">
         <v>28</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="B465" t="s">
         <v>8</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="B467" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8866,161 +9133,161 @@
     </row>
     <row r="470" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="B470" t="s">
         <v>18</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="B471" t="s">
         <v>29</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="B472" t="s">
         <v>29</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
     </row>
     <row r="473" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="B473" t="s">
         <v>29</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="B474" t="s">
         <v>29</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="B475" t="s">
         <v>29</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="B476" t="s">
         <v>8</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="B477" t="s">
         <v>8</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="B478" t="s">
         <v>8</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="B479" t="s">
         <v>8</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="B480" t="s">
         <v>8</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="B481" t="s">
         <v>8</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="B482" t="s">
         <v>8</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="B483" t="s">
         <v>8</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="B484" t="s">
         <v>18</v>
@@ -9031,62 +9298,62 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="B485" t="s">
         <v>8</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="B486" t="s">
         <v>8</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
     </row>
     <row r="487" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="B487" t="s">
         <v>18</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
     </row>
     <row r="488" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="B488" t="s">
         <v>18</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
     </row>
     <row r="489" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B489" t="s">
         <v>18</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="B490" t="s">
         <v>18</v>
@@ -9094,32 +9361,32 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="B491" t="s">
         <v>18</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="B492" t="s">
         <v>8</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="B494" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9143,260 +9410,260 @@
     </row>
     <row r="497" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="B497" t="s">
         <v>18</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
     </row>
     <row r="498" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="B498" t="s">
         <v>18</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
     </row>
     <row r="499" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="B499" t="s">
         <v>28</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
     </row>
     <row r="500" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="B500" t="s">
         <v>18</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
     </row>
     <row r="501" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="B501" t="s">
         <v>18</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
     </row>
     <row r="502" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="B502" t="s">
         <v>18</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
     </row>
     <row r="503" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="B503" t="s">
         <v>18</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
     </row>
     <row r="504" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="B504" t="s">
         <v>18</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
     </row>
     <row r="505" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="B505" t="s">
         <v>28</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
     </row>
     <row r="506" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="B506" t="s">
         <v>28</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
     </row>
     <row r="507" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="B507" t="s">
         <v>18</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
     </row>
     <row r="508" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="B508" t="s">
         <v>18</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="B509" t="s">
         <v>18</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="B510" t="s">
         <v>8</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="B511" t="s">
         <v>8</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="B512" t="s">
         <v>8</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="B513" t="s">
         <v>8</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="B514" t="s">
         <v>8</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="B515" t="s">
         <v>8</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="B516" t="s">
         <v>8</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="B517" t="s">
         <v>8</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="B518" t="s">
         <v>8</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="B519" t="s">
         <v>8</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="B520" t="s">
         <v>8</v>
@@ -9407,7 +9674,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="B521" t="s">
         <v>8</v>
@@ -9418,7 +9685,7 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="B522" t="s">
         <v>8</v>
@@ -9429,7 +9696,7 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="B523" t="s">
         <v>8</v>
@@ -9440,7 +9707,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="B524" t="s">
         <v>8</v>
@@ -9451,7 +9718,7 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="B525" t="s">
         <v>8</v>
@@ -9462,112 +9729,112 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="B526" t="s">
         <v>8</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="B527" t="s">
         <v>8</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="B528" t="s">
         <v>8</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="B529" t="s">
         <v>8</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="B530" t="s">
         <v>8</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="B531" t="s">
         <v>18</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="B532" t="s">
         <v>18</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="B533" t="s">
         <v>8</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="B534" t="s">
         <v>18</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="B535" t="s">
         <v>8</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>

--- a/VoiceoverSheet.xlsx
+++ b/VoiceoverSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finn\Desktop\Medien- und Spielekonzeption\Spez. Game Elements\GameElements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEFE075-93FD-4EA7-A3A7-09434A21A27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28986C5-3294-4C83-A1BE-9D7022C11CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1633,9 +1633,6 @@
     <t>Harta_Karun_8_28</t>
   </si>
   <si>
-    <t>Ihr wollt gerade aus der Grotte treten, doch stolpert ihr über etwas merkwürdig glitschiges. Ihr rappelt euch auf und erkennt worauf ihr getreten seid: Einen riesigen Tentakel.\nIhr könnt noch gerade rechtzeitig in Deckung gehen, bevor euch Harta Karun anfällt. Euch ist direkt bewusst, dass dieser Kampf eure bisherigen Herausforderungen übertreffen wird.</t>
-  </si>
-  <si>
     <t>Die_Hexe_Hamba_8_29</t>
   </si>
   <si>
@@ -1651,9 +1648,6 @@
     <t>Harta_Karun_8_31</t>
   </si>
   <si>
-    <t>Hanmba liegt vor euch am Boden. Aber anstatt zu verzweifeln, legt sich ein Lächeln auf ihre Lippen.\nIhr könnt noch gerade rechtzeitig in Deckung gehen, bevor euch ein gigantischer Kraken anfällt: Harta Karun.\nEuch ist direkt bewusst, dass dieser Kampf eure bisherigen Herausforderungen übertreffen wird.</t>
-  </si>
-  <si>
     <t>Die_Hexe_Hamba_8_32</t>
   </si>
   <si>
@@ -1759,21 +1753,12 @@
     <t>Harta_Karun_8_602</t>
   </si>
   <si>
-    <t>Harta Karun hat zwei von euch über erwischt! (Ihr verliert [var=Part2] und [var=Part3].)\n\nAllerdings könnt ihr auch ein Körperteile erbeuten! Einen Tentakel Arm (31).</t>
-  </si>
-  <si>
     <t>Harta_Karun_8_603</t>
   </si>
   <si>
-    <t>Harta Karun hat einen von euch über erwischt! (Ihr verliert [var=Part2].)\n\nAllerdings könnt ihr auch zwei Körperteile erbeuten! Einen Tentakel Arm (31) und ein Tentakelbein (33).</t>
-  </si>
-  <si>
     <t>Harta_Karun_8_604</t>
   </si>
   <si>
-    <t>Harta Karun hat zwei von euch über erwischt! (Ihr verliert [var=Part2] und [var=Part3].)\n\nAllerdings könnt ihr auch zwei Körperteile erbeuten! Einen Tentakel Arm (31) und ein Tentakelbein (33).</t>
-  </si>
-  <si>
     <t>Harta_Karun_8_605</t>
   </si>
   <si>
@@ -2014,9 +1999,6 @@
     <t>Meerjungfrau_9_80</t>
   </si>
   <si>
-    <t>Der gezielter Wurf mit einer Kartoffel sorgt dafür, dass der Meerjungfrau ihre Flöte aus der Hand fällt. (Ihr verliert eine Ration) Entgeistert schaut sie euch an und fängt an zu schluchzen. Im nächsten Moment taucht neben der Meerjungfrau ein Delfin auf. Die beiden schauen sich kurz an und stürzen sich sogleich auf euch.</t>
-  </si>
-  <si>
     <t>Meerjungfrau_9_81</t>
   </si>
   <si>
@@ -2092,15 +2074,9 @@
     <t>Meerjungfrau_9_93</t>
   </si>
   <si>
-    <t>Als du den Schuss abgibst  taucht neben der Meerjungfrau ein Delfin auf. Die beiden schauen sich kurz an und stürzen sich sogleich auf euch.</t>
-  </si>
-  <si>
     <t>Meerjungfrau_9_94</t>
   </si>
   <si>
-    <t>Nach einem kurzen Moment der Panik zieht dich eine schuppige Hand auf den Stein zurück. Dein linkes Bein ist jedoch gebrochen und nicht länger zu gebrauchen. (lege es ab)\n"Es freut mich, dass dir meine Melodie gefallen hat. Ich glaube diese Delfinflosse kannst du besser gebrauchen, als der vorherige Besitzer."\n(Erhalte Delfinflossenbein)\n\nAls ihr euch unterhalten habt, konntest du unbemerkt die Flöte der Meerjungfrau an dich nehmen. Wozu diese wohl noch nützlich sein könnte...</t>
-  </si>
-  <si>
     <t>Players_All_9_95</t>
   </si>
   <si>
@@ -2296,9 +2272,6 @@
     <t>Meerjungfrau_9_601</t>
   </si>
   <si>
-    <t>Von den Meerjungfrauen ist nichts mehr zu sehen. Lediglich der Stein ragt weiterhin einsam aus dem Waser.</t>
-  </si>
-  <si>
     <t>Players_All_9_602</t>
   </si>
   <si>
@@ -2344,9 +2317,6 @@
     <t>Inselbewohner_10_456</t>
   </si>
   <si>
-    <t>Ihr nehmt die beiden mit an Bord. Sie haben zwar einige Vorräte eingepackt (nehmt 5 Rationen). Auf eurem Schiff wird es jetzt schon recht eng und die Rationen müsst ihr mit euren Passagieren teilen (von nun an müsst ihr pro Feld, das ihr euch bewegt, 2 Rationen abgeben). Findet also möglichst schnell die Tochter der beiden.</t>
-  </si>
-  <si>
     <t>Players_All_10_458</t>
   </si>
   <si>
@@ -2425,9 +2395,6 @@
     <t>Erzähler_10_516</t>
   </si>
   <si>
-    <t>Im Kampf wurden zwei von euch hart erwischt! (Ihr verliert [var=Part1] und [var=Part2].)\nAlerdings findet ihr auch ein außergewöhnliches Körperteil: Einen Flammenhandschuh (35).\nAußerdem findet ihr 2 Rationen im Unterschlupf der beiden (ihr erhaltet 2 Rationen.)\n\nAnsonsten gibt es auf der Insel nicht mehr viel zu sehen.</t>
-  </si>
-  <si>
     <t>Erzähler_10_517</t>
   </si>
   <si>
@@ -2480,9 +2447,6 @@
   </si>
   <si>
     <t>Erzähler_11_49</t>
-  </si>
-  <si>
-    <t>Es bedarf einiges an Kraft, aber letztlich gelingt es der Kämpferin den Stöpsel einzusetzen und euer Schiff schießt wieder an die Meeresoberfläche.\nIm Abfluss hatten sich ein paar Körperteile angesammelt. Einige wurden zwar beim Einsetzen des Stöpsels zerqutscht, doch einen muschelbesetzen Arm konntet ihr sichern.\n(Nehmt das Körperteil Muschelbesetztes Bein (28))\n\nWieder in Sicherheit müsst ihr mit Bedauern feststellen, dass eure Rationen von dem ganzen Salzwasser nun ungeniesbar sind (legt ALLE Rationen ab).</t>
   </si>
   <si>
     <t>Erzähler_11_50</t>
@@ -3419,6 +3383,323 @@
         <scheme val="minor"/>
       </rPr>
       <t>auf Harta Karun.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ihr wollt gerade aus der Grotte treten, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>da</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stolpert ihr über etwas merkwürdig glitschiges. Ihr rappelt euch auf und erkennt worauf ihr getreten seid: Einen riesigen Tentakel.\nIhr könnt noch gerade rechtzeitig in Deckung gehen, bevor euch Harta Karun anfällt. Euch ist direkt bewusst, dass dieser Kampf eure bisherigen Herausforderungen übertreffen wird.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hamba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> liegt vor euch am Boden. Aber anstatt zu verzweifeln, legt sich ein Lächeln auf ihre Lippen.\nIhr könnt noch gerade rechtzeitig in Deckung gehen, bevor euch ein gigantischer Kraken anfällt: Harta Karun.\nEuch ist direkt bewusst, dass dieser Kampf eure bisherigen Herausforderungen übertreffen wird.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Harta Karun hat zwei von euch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>übel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> erwischt! (Ihr verliert [var=Part2] und [var=Part3].)\n\nAllerdings könnt ihr auch ein Körperteile erbeuten! Einen Tentakel Arm (31).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Harta Karun hat einen von euch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>übel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> erwischt! (Ihr verliert [var=Part2].)\n\nAllerdings könnt ihr auch zwei Körperteile erbeuten! Einen Tentakel Arm (31) und ein Tentakelbein (33).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Harta Karun hat zwei von euch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>übel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> erwischt! (Ihr verliert [var=Part2] und [var=Part3].)\n\nAllerdings könnt ihr auch zwei Körperteile erbeuten! Einen Tentakel Arm (31) und ein Tentakelbein (33).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Der </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gezielte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Wurf mit einer Kartoffel sorgt dafür, dass der Meerjungfrau ihre Flöte aus der Hand fällt. (Ihr verliert eine Ration) Entgeistert schaut sie euch an und fängt an zu schluchzen. Im nächsten Moment taucht neben der Meerjungfrau ein Delfin auf. Die beiden schauen sich kurz an und stürzen sich sogleich auf euch.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Als du den Schuss abgibst </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Leerzeichen zu viel]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> taucht neben der Meerjungfrau ein Delfin auf. Die beiden schauen sich kurz an und stürzen sich sogleich auf euch.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nach einem kurzen Moment der Panik zieht dich eine schuppige Hand auf den Stein zurück. Dein linkes Bein ist jedoch gebrochen und nicht länger zu gebrauchen. (lege es ab)\n"Es freut mich, dass dir meine Melodie gefallen hat. Ich glaube diese Delfinflosse kannst du besser gebrauchen, als der vorherige Besitzer."\n(Erhalte Delfinflosse </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)\n\nAls ihr euch unterhalten habt, konntest du unbemerkt die Flöte der Meerjungfrau an dich nehmen. Wozu diese wohl noch nützlich sein könnte...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Von den Meerjungfrauen ist nichts mehr zu sehen. Lediglich der Stein ragt weiterhin einsam aus dem </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wasser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ihr nehmt die beiden mit an Bord. Sie haben </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[zwar löschen]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> einige Vorräte eingepackt (nehmt 5 Rationen). Auf eurem Schiff wird es jetzt schon recht eng und die Rationen müsst ihr mit euren Passagieren teilen (von nun an müsst ihr pro Feld, das ihr euch bewegt, 2 Rationen abgeben). Findet also möglichst schnell die Tochter der beiden.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Im Kampf wurden zwei von euch hart erwischt! (Ihr verliert [var=Part1] und [var=Part2].)\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Allerdings </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>findet ihr auch ein außergewöhnliches Körperteil: Einen Flammenhandschuh (35).\nAußerdem findet ihr 2 Rationen im Unterschlupf der beiden (ihr erhaltet 2 Rationen.)\n\nAnsonsten gibt es auf der Insel nicht mehr viel zu sehen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Es bedarf einiges an Kraft, aber letztlich gelingt es der Kämpferin den Stöpsel einzusetzen und euer Schiff schießt wieder an die Meeresoberfläche.\nIm Abfluss hatten sich ein paar Körperteile angesammelt. Einige wurden zwar beim Einsetzen des Stöpsels </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zerquetscht</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, doch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ein muschelbesetzes Bein </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>konntet ihr sichern.\n(Nehmt das Körperteil Muschelbesetztes Bein (28))\n\nWieder in Sicherheit müsst ihr mit Bedauern feststellen, dass eure Rationen von dem ganzen Salzwasser nun ungeniesbar sind (legt ALLE Rationen ab).</t>
     </r>
   </si>
 </sst>
@@ -4291,8 +4572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D535"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D338" sqref="D338"/>
+    <sheetView tabSelected="1" topLeftCell="A507" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D519" sqref="D519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4525,7 +4806,7 @@
         <v>18</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4596,7 +4877,7 @@
         <v>18</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -4618,7 +4899,7 @@
         <v>18</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -4640,7 +4921,7 @@
         <v>18</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4854,7 +5135,7 @@
         <v>17</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -4909,7 +5190,7 @@
         <v>17</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5019,7 +5300,7 @@
         <v>17</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -5030,7 +5311,7 @@
         <v>17</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5415,7 +5696,7 @@
         <v>18</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5426,7 +5707,7 @@
         <v>18</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -5538,7 +5819,7 @@
         <v>19</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5549,7 +5830,7 @@
         <v>19</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5560,7 +5841,7 @@
         <v>19</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5884,7 +6165,7 @@
         <v>20</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5895,7 +6176,7 @@
         <v>20</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5961,7 +6242,7 @@
         <v>20</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -6038,7 +6319,7 @@
         <v>20</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -6720,7 +7001,7 @@
         <v>18</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -6731,7 +7012,7 @@
         <v>18</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -6942,7 +7223,7 @@
         <v>22</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -7019,7 +7300,7 @@
         <v>22</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -7621,7 +7902,7 @@
         <v>23</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -7769,155 +8050,155 @@
         <v>24</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>537</v>
+        <v>891</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B342" t="s">
         <v>25</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B343" t="s">
         <v>18</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B344" t="s">
         <v>24</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>543</v>
+        <v>892</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B345" t="s">
         <v>25</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B346" t="s">
         <v>25</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B347" t="s">
         <v>8</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B348" t="s">
         <v>8</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B349" t="s">
         <v>8</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B350" t="s">
         <v>8</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B351" t="s">
         <v>8</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B352" t="s">
         <v>8</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B353" t="s">
         <v>8</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B354" t="s">
         <v>8</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B355" t="s">
         <v>18</v>
@@ -7928,7 +8209,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B356" t="s">
         <v>8</v>
@@ -7939,40 +8220,40 @@
     </row>
     <row r="357" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B357" t="s">
         <v>18</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B358" t="s">
         <v>18</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B359" t="s">
         <v>18</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B360" t="s">
         <v>18</v>
@@ -7980,7 +8261,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B361" t="s">
         <v>8</v>
@@ -7991,62 +8272,62 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B362" t="s">
         <v>24</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B363" t="s">
         <v>8</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B364" t="s">
         <v>24</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>579</v>
+        <v>893</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B365" t="s">
         <v>24</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>581</v>
+        <v>894</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B366" t="s">
         <v>24</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>583</v>
+        <v>895</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B367" t="s">
         <v>24</v>
@@ -8054,7 +8335,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B368" t="s">
         <v>8</v>
@@ -8065,62 +8346,62 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B369" t="s">
         <v>24</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B370" t="s">
         <v>8</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B371" t="s">
         <v>24</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B372" t="s">
         <v>24</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B373" t="s">
         <v>24</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B374" t="s">
         <v>24</v>
@@ -8128,62 +8409,62 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B375" t="s">
         <v>24</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B376" t="s">
         <v>8</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B377" t="s">
         <v>24</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B378" t="s">
         <v>24</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B379" t="s">
         <v>24</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B380" t="s">
         <v>24</v>
@@ -8191,219 +8472,219 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B381" t="s">
         <v>25</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B382" t="s">
         <v>8</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B383" t="s">
         <v>26</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B384" t="s">
         <v>26</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B385" t="s">
         <v>26</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B386" t="s">
         <v>26</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B387" t="s">
         <v>26</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B388" t="s">
         <v>26</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B389" t="s">
         <v>26</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B390" t="s">
         <v>26</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B391" t="s">
         <v>26</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B392" t="s">
         <v>26</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B393" t="s">
         <v>26</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B394" t="s">
         <v>26</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B395" t="s">
         <v>27</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B396" t="s">
         <v>8</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B397" t="s">
         <v>24</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B398" t="s">
         <v>18</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B399" t="s">
         <v>8</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B401" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -8427,579 +8708,579 @@
     </row>
     <row r="404" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B404" t="s">
         <v>18</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B405" t="s">
         <v>28</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B406" t="s">
         <v>28</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B407" t="s">
         <v>28</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B408" t="s">
         <v>28</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B409" t="s">
         <v>28</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B410" t="s">
         <v>28</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B411" t="s">
         <v>28</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B412" t="s">
         <v>28</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B413" t="s">
         <v>28</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>664</v>
+        <v>896</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B414" t="s">
         <v>28</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B415" t="s">
         <v>28</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B416" t="s">
         <v>28</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B417" t="s">
         <v>28</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B418" t="s">
         <v>28</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B419" t="s">
         <v>28</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B420" t="s">
         <v>28</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="421" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B421" t="s">
         <v>28</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B422" t="s">
         <v>28</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="B423" t="s">
         <v>28</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="B424" t="s">
         <v>28</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B425" t="s">
         <v>28</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="B426" t="s">
         <v>28</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>690</v>
+        <v>897</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B427" t="s">
         <v>28</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>692</v>
+        <v>898</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B428" t="s">
         <v>8</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B429" t="s">
         <v>8</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B430" t="s">
         <v>8</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="B431" t="s">
         <v>8</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="B432" t="s">
         <v>8</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B433" t="s">
         <v>8</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B434" t="s">
         <v>8</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="B435" t="s">
         <v>8</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="B436" t="s">
         <v>8</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="B437" t="s">
         <v>8</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="B438" t="s">
         <v>8</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="B439" t="s">
         <v>8</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="B440" t="s">
         <v>8</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="B441" t="s">
         <v>8</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="B442" t="s">
         <v>8</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="B443" t="s">
         <v>8</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="B444" t="s">
         <v>8</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="B445" t="s">
         <v>8</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="B446" t="s">
         <v>8</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="447" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="B447" t="s">
         <v>8</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="448" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="B448" t="s">
         <v>8</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="449" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="B449" t="s">
         <v>8</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="B450" t="s">
         <v>8</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="B451" t="s">
         <v>8</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="B452" t="s">
         <v>8</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="B453" t="s">
         <v>8</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="B454" t="s">
         <v>8</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="B455" t="s">
         <v>8</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="B456" t="s">
         <v>18</v>
@@ -9010,7 +9291,7 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="B457" t="s">
         <v>8</v>
@@ -9021,40 +9302,40 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="B458" t="s">
         <v>18</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="B459" t="s">
         <v>18</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="B460" t="s">
         <v>18</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B461" t="s">
         <v>18</v>
@@ -9062,7 +9343,7 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B462" t="s">
         <v>8</v>
@@ -9073,43 +9354,43 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="B463" t="s">
         <v>8</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="B464" t="s">
         <v>28</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>758</v>
+        <v>899</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="B465" t="s">
         <v>8</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="B467" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -9133,161 +9414,161 @@
     </row>
     <row r="470" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="B470" t="s">
         <v>18</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="B471" t="s">
         <v>29</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="B472" t="s">
         <v>29</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
     </row>
     <row r="473" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="B473" t="s">
         <v>29</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="B474" t="s">
         <v>29</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="B475" t="s">
         <v>29</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>774</v>
+        <v>900</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="B476" t="s">
         <v>8</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="B477" t="s">
         <v>8</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="B478" t="s">
         <v>8</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="B479" t="s">
         <v>8</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="B480" t="s">
         <v>8</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="B481" t="s">
         <v>8</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="B482" t="s">
         <v>8</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="B483" t="s">
         <v>8</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="B484" t="s">
         <v>18</v>
@@ -9298,62 +9579,62 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="B485" t="s">
         <v>8</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B486" t="s">
         <v>8</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
     </row>
     <row r="487" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="B487" t="s">
         <v>18</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
     </row>
     <row r="488" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="B488" t="s">
         <v>18</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
     <row r="489" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="B489" t="s">
         <v>18</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>801</v>
+        <v>901</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="B490" t="s">
         <v>18</v>
@@ -9361,32 +9642,32 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="B491" t="s">
         <v>18</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="B492" t="s">
         <v>8</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="B494" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9410,260 +9691,260 @@
     </row>
     <row r="497" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="B497" t="s">
         <v>18</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
     </row>
     <row r="498" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="B498" t="s">
         <v>18</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
     </row>
     <row r="499" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="B499" t="s">
         <v>28</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
     </row>
     <row r="500" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="B500" t="s">
         <v>18</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
     </row>
     <row r="501" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="B501" t="s">
         <v>18</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
     </row>
     <row r="502" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="B502" t="s">
         <v>18</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>820</v>
+        <v>902</v>
       </c>
     </row>
     <row r="503" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="B503" t="s">
         <v>18</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
     </row>
     <row r="504" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="B504" t="s">
         <v>18</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
     </row>
     <row r="505" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="B505" t="s">
         <v>28</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
     </row>
     <row r="506" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="B506" t="s">
         <v>28</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
     </row>
     <row r="507" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="B507" t="s">
         <v>18</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
     </row>
     <row r="508" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="B508" t="s">
         <v>18</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="B509" t="s">
         <v>18</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="B510" t="s">
         <v>8</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="B511" t="s">
         <v>8</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="B512" t="s">
         <v>8</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="B513" t="s">
         <v>8</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="B514" t="s">
         <v>8</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="B515" t="s">
         <v>8</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="B516" t="s">
         <v>8</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="B517" t="s">
         <v>8</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="B518" t="s">
         <v>8</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="B519" t="s">
         <v>8</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="B520" t="s">
         <v>8</v>
@@ -9674,7 +9955,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="B521" t="s">
         <v>8</v>
@@ -9685,7 +9966,7 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="B522" t="s">
         <v>8</v>
@@ -9696,7 +9977,7 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="B523" t="s">
         <v>8</v>
@@ -9707,7 +9988,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="B524" t="s">
         <v>8</v>
@@ -9718,7 +9999,7 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="B525" t="s">
         <v>8</v>
@@ -9729,112 +10010,112 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="B526" t="s">
         <v>8</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="B527" t="s">
         <v>8</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="B528" t="s">
         <v>8</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="B529" t="s">
         <v>8</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="B530" t="s">
         <v>8</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="B531" t="s">
         <v>18</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="B532" t="s">
         <v>18</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="B533" t="s">
         <v>8</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="B534" t="s">
         <v>18</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="B535" t="s">
         <v>8</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>

--- a/VoiceoverSheet.xlsx
+++ b/VoiceoverSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finn\Desktop\Medien- und Spielekonzeption\Spez. Game Elements\GameElements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28986C5-3294-4C83-A1BE-9D7022C11CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94635C26-1A92-4200-9507-D53F24FDCBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4572,8 +4572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D535"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A507" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D519" sqref="D519"/>
+    <sheetView tabSelected="1" topLeftCell="A234" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D242" sqref="D242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
